--- a/Assets/00.Data/Excel/MapTable.xlsx
+++ b/Assets/00.Data/Excel/MapTable.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-03\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52EA2C8-F0C4-4A7A-8CF2-CB11F0D09920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA18D7B-72AC-4EFB-B31B-6CEFF6CF1C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Map_Table" sheetId="16" r:id="rId1"/>
+    <sheet name="MapTableTable" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Map_Table!$B$5:$L$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Map_Table!$A$1:$W$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MapTableTable!$B$5:$L$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MapTableTable!$A$1:$W$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -76,14 +76,6 @@
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Volcano</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -406,6 +398,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>MapTableIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,7 +418,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,6 +472,14 @@
       <color rgb="FF000000"/>
       <name val="calibri"/>
       <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -610,7 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,7 +660,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,10 +672,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -904,15 +912,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.125" style="3" bestFit="1" customWidth="1"/>
@@ -950,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -975,28 +983,28 @@
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="2"/>
@@ -1012,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1094,13 +1102,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F6" s="11">
         <v>1</v>
@@ -1112,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="11">
-        <v>901912</v>
+        <v>962001</v>
       </c>
       <c r="J6" s="11">
         <v>0</v>
@@ -1134,13 +1142,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E7" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F7" s="11">
         <v>2</v>
@@ -1152,7 +1160,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="11">
-        <v>901914</v>
+        <v>964001</v>
       </c>
       <c r="J7" s="11">
         <v>0</v>
@@ -1174,13 +1182,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E8" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F8" s="11">
         <v>3</v>
@@ -1214,13 +1222,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E9" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F9" s="11">
         <v>4</v>
@@ -1254,13 +1262,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E10" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F10" s="11">
         <v>5</v>
@@ -1272,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="11">
-        <v>901912</v>
+        <v>964001</v>
       </c>
       <c r="J10" s="11">
         <v>0</v>
@@ -1294,13 +1302,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E11" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F11" s="11">
         <v>6</v>
@@ -1312,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J11" s="11">
         <v>0</v>
@@ -1334,13 +1342,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E12" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F12" s="11">
         <v>1</v>
@@ -1352,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J12" s="11">
         <v>0</v>
@@ -1374,13 +1382,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E13" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F13" s="11">
         <v>2</v>
@@ -1392,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="I13" s="11">
-        <v>901913</v>
+        <v>963001</v>
       </c>
       <c r="J13" s="11">
-        <v>111001</v>
+        <v>131001</v>
       </c>
       <c r="K13" s="11">
         <v>0</v>
@@ -1414,13 +1422,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E14" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F14" s="11">
         <v>3</v>
@@ -1432,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J14" s="11">
         <v>0</v>
@@ -1454,13 +1462,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E15" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F15" s="11">
         <v>4</v>
@@ -1472,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J15" s="11">
         <v>0</v>
@@ -1494,13 +1502,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E16" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F16" s="11">
         <v>5</v>
@@ -1512,7 +1520,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="11">
-        <v>901914</v>
+        <v>964001</v>
       </c>
       <c r="J16" s="11">
         <v>0</v>
@@ -1534,13 +1542,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E17" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F17" s="11">
         <v>6</v>
@@ -1552,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J17" s="11">
         <v>0</v>
@@ -1574,13 +1582,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E18" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -1592,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J18" s="11">
         <v>0</v>
@@ -1614,13 +1622,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E19" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F19" s="11">
         <v>2</v>
@@ -1632,7 +1640,7 @@
         <v>4</v>
       </c>
       <c r="I19" s="11">
-        <v>901914</v>
+        <v>964001</v>
       </c>
       <c r="J19" s="11">
         <v>0</v>
@@ -1654,13 +1662,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E20" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F20" s="11">
         <v>3</v>
@@ -1672,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="11">
-        <v>901912</v>
+        <v>962001</v>
       </c>
       <c r="J20" s="11">
         <v>0</v>
@@ -1694,13 +1702,13 @@
         <v>16</v>
       </c>
       <c r="C21" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E21" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F21" s="11">
         <v>4</v>
@@ -1712,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J21" s="11">
         <v>0</v>
@@ -1734,13 +1742,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E22" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F22" s="11">
         <v>5</v>
@@ -1752,7 +1760,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="11">
-        <v>901912</v>
+        <v>962001</v>
       </c>
       <c r="J22" s="11">
         <v>0</v>
@@ -1774,13 +1782,13 @@
         <v>18</v>
       </c>
       <c r="C23" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E23" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F23" s="11">
         <v>6</v>
@@ -1792,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J23" s="11">
         <v>0</v>
@@ -1814,13 +1822,13 @@
         <v>19</v>
       </c>
       <c r="C24" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E24" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F24" s="11">
         <v>1</v>
@@ -1854,13 +1862,13 @@
         <v>20</v>
       </c>
       <c r="C25" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E25" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F25" s="11">
         <v>2</v>
@@ -1872,7 +1880,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J25" s="11">
         <v>0</v>
@@ -1894,13 +1902,13 @@
         <v>21</v>
       </c>
       <c r="C26" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E26" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F26" s="11">
         <v>3</v>
@@ -1934,13 +1942,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E27" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F27" s="11">
         <v>4</v>
@@ -1974,13 +1982,13 @@
         <v>23</v>
       </c>
       <c r="C28" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E28" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F28" s="11">
         <v>5</v>
@@ -1992,7 +2000,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J28" s="11">
         <v>0</v>
@@ -2014,13 +2022,13 @@
         <v>24</v>
       </c>
       <c r="C29" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E29" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F29" s="11">
         <v>6</v>
@@ -2054,13 +2062,13 @@
         <v>25</v>
       </c>
       <c r="C30" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E30" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F30" s="11">
         <v>1</v>
@@ -2072,7 +2080,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="11">
-        <v>901912</v>
+        <v>962001</v>
       </c>
       <c r="J30" s="11">
         <v>0</v>
@@ -2094,13 +2102,13 @@
         <v>26</v>
       </c>
       <c r="C31" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E31" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F31" s="11">
         <v>2</v>
@@ -2112,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="I31" s="11">
-        <v>901914</v>
+        <v>964001</v>
       </c>
       <c r="J31" s="11">
         <v>0</v>
@@ -2134,13 +2142,13 @@
         <v>27</v>
       </c>
       <c r="C32" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E32" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F32" s="11">
         <v>3</v>
@@ -2174,13 +2182,13 @@
         <v>28</v>
       </c>
       <c r="C33" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E33" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F33" s="11">
         <v>4</v>
@@ -2192,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="11">
-        <v>901911</v>
+        <v>961001</v>
       </c>
       <c r="J33" s="11">
         <v>0</v>
@@ -2214,13 +2222,13 @@
         <v>29</v>
       </c>
       <c r="C34" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E34" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F34" s="11">
         <v>5</v>
@@ -2232,7 +2240,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="11">
-        <v>901922</v>
+        <v>962001</v>
       </c>
       <c r="J34" s="11">
         <v>0</v>
@@ -2254,13 +2262,13 @@
         <v>30</v>
       </c>
       <c r="C35" s="11">
-        <v>301001</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>14</v>
+        <v>560001</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E35" s="11">
-        <v>901901</v>
+        <v>960001</v>
       </c>
       <c r="F35" s="11">
         <v>6</v>
@@ -2478,7 +2486,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="18"/>
+      <c r="L44" s="14"/>
       <c r="M44" s="13"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -3270,7 +3278,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="18"/>
+      <c r="L80" s="14"/>
       <c r="M80" s="13"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
@@ -3830,7 +3838,7 @@
     </row>
     <row r="106" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
-      <c r="B106" s="19"/>
+      <c r="B106" s="18"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -3850,7 +3858,7 @@
     </row>
     <row r="107" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
-      <c r="B107" s="19"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -3870,7 +3878,7 @@
     </row>
     <row r="108" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
-      <c r="B108" s="19"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -3890,7 +3898,7 @@
     </row>
     <row r="109" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
-      <c r="B109" s="19"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -3910,7 +3918,7 @@
     </row>
     <row r="110" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
-      <c r="B110" s="19"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -3930,7 +3938,7 @@
     </row>
     <row r="111" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
-      <c r="B111" s="19"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -3950,7 +3958,7 @@
     </row>
     <row r="112" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
-      <c r="B112" s="19"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -3970,7 +3978,7 @@
     </row>
     <row r="113" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
-      <c r="B113" s="19"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -3990,7 +3998,7 @@
     </row>
     <row r="114" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
-      <c r="B114" s="19"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4010,7 +4018,7 @@
     </row>
     <row r="115" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15"/>
-      <c r="B115" s="19"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -4030,7 +4038,7 @@
     </row>
     <row r="116" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
-      <c r="B116" s="19"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -4050,7 +4058,7 @@
     </row>
     <row r="117" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="15"/>
-      <c r="B117" s="19"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -4070,7 +4078,7 @@
     </row>
     <row r="118" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="15"/>
-      <c r="B118" s="19"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -4090,7 +4098,7 @@
     </row>
     <row r="119" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="15"/>
-      <c r="B119" s="19"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -4110,7 +4118,7 @@
     </row>
     <row r="120" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="15"/>
-      <c r="B120" s="19"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -4130,7 +4138,7 @@
     </row>
     <row r="121" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="15"/>
-      <c r="B121" s="19"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -4150,7 +4158,7 @@
     </row>
     <row r="122" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15"/>
-      <c r="B122" s="19"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -4170,7 +4178,7 @@
     </row>
     <row r="123" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="15"/>
-      <c r="B123" s="19"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -4190,7 +4198,7 @@
     </row>
     <row r="124" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="15"/>
-      <c r="B124" s="19"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -4210,7 +4218,7 @@
     </row>
     <row r="125" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="15"/>
-      <c r="B125" s="19"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -4230,7 +4238,7 @@
     </row>
     <row r="126" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="15"/>
-      <c r="B126" s="19"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -4250,7 +4258,7 @@
     </row>
     <row r="127" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="15"/>
-      <c r="B127" s="19"/>
+      <c r="B127" s="18"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -4270,7 +4278,7 @@
     </row>
     <row r="128" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="15"/>
-      <c r="B128" s="19"/>
+      <c r="B128" s="18"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -4290,7 +4298,7 @@
     </row>
     <row r="129" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
-      <c r="B129" s="19"/>
+      <c r="B129" s="18"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -4310,7 +4318,7 @@
     </row>
     <row r="130" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="15"/>
-      <c r="B130" s="19"/>
+      <c r="B130" s="18"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -4330,7 +4338,7 @@
     </row>
     <row r="131" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="15"/>
-      <c r="B131" s="19"/>
+      <c r="B131" s="18"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -4350,7 +4358,7 @@
     </row>
     <row r="132" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15"/>
-      <c r="B132" s="19"/>
+      <c r="B132" s="18"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -4370,7 +4378,7 @@
     </row>
     <row r="133" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="15"/>
-      <c r="B133" s="19"/>
+      <c r="B133" s="18"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -4390,7 +4398,7 @@
     </row>
     <row r="134" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="15"/>
-      <c r="B134" s="19"/>
+      <c r="B134" s="18"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -4410,7 +4418,7 @@
     </row>
     <row r="135" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="15"/>
-      <c r="B135" s="19"/>
+      <c r="B135" s="18"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -4430,7 +4438,7 @@
     </row>
     <row r="136" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="15"/>
-      <c r="B136" s="19"/>
+      <c r="B136" s="18"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -4450,7 +4458,7 @@
     </row>
     <row r="137" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="15"/>
-      <c r="B137" s="19"/>
+      <c r="B137" s="18"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -4470,7 +4478,7 @@
     </row>
     <row r="138" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15"/>
-      <c r="B138" s="19"/>
+      <c r="B138" s="18"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -4490,7 +4498,7 @@
     </row>
     <row r="139" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="15"/>
-      <c r="B139" s="19"/>
+      <c r="B139" s="18"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -4510,7 +4518,7 @@
     </row>
     <row r="140" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="15"/>
-      <c r="B140" s="19"/>
+      <c r="B140" s="18"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -4530,7 +4538,7 @@
     </row>
     <row r="141" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="15"/>
-      <c r="B141" s="19"/>
+      <c r="B141" s="18"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -4550,7 +4558,7 @@
     </row>
     <row r="142" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="15"/>
-      <c r="B142" s="19"/>
+      <c r="B142" s="18"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -4570,7 +4578,7 @@
     </row>
     <row r="143" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="15"/>
-      <c r="B143" s="19"/>
+      <c r="B143" s="18"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4590,7 +4598,7 @@
     </row>
     <row r="144" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="15"/>
-      <c r="B144" s="19"/>
+      <c r="B144" s="18"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4610,7 +4618,7 @@
     </row>
     <row r="145" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="15"/>
-      <c r="B145" s="19"/>
+      <c r="B145" s="18"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4630,7 +4638,7 @@
     </row>
     <row r="146" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="15"/>
-      <c r="B146" s="19"/>
+      <c r="B146" s="18"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -4650,7 +4658,7 @@
     </row>
     <row r="147" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="15"/>
-      <c r="B147" s="19"/>
+      <c r="B147" s="18"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -4670,7 +4678,7 @@
     </row>
     <row r="148" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="15"/>
-      <c r="B148" s="19"/>
+      <c r="B148" s="18"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -4690,7 +4698,7 @@
     </row>
     <row r="149" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="15"/>
-      <c r="B149" s="19"/>
+      <c r="B149" s="18"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -4710,7 +4718,7 @@
     </row>
     <row r="150" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="15"/>
-      <c r="B150" s="19"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -4730,7 +4738,7 @@
     </row>
     <row r="151" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="15"/>
-      <c r="B151" s="19"/>
+      <c r="B151" s="18"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -4750,7 +4758,7 @@
     </row>
     <row r="152" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="15"/>
-      <c r="B152" s="19"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -4770,7 +4778,7 @@
     </row>
     <row r="153" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="15"/>
-      <c r="B153" s="19"/>
+      <c r="B153" s="18"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -4790,7 +4798,7 @@
     </row>
     <row r="154" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="15"/>
-      <c r="B154" s="19"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -4810,7 +4818,7 @@
     </row>
     <row r="155" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="15"/>
-      <c r="B155" s="19"/>
+      <c r="B155" s="18"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -4830,7 +4838,7 @@
     </row>
     <row r="156" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="15"/>
-      <c r="B156" s="19"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -4850,7 +4858,7 @@
     </row>
     <row r="157" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="15"/>
-      <c r="B157" s="19"/>
+      <c r="B157" s="18"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -4870,7 +4878,7 @@
     </row>
     <row r="158" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="15"/>
-      <c r="B158" s="19"/>
+      <c r="B158" s="18"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -4890,7 +4898,7 @@
     </row>
     <row r="159" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="15"/>
-      <c r="B159" s="19"/>
+      <c r="B159" s="18"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -4910,7 +4918,7 @@
     </row>
     <row r="160" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="15"/>
-      <c r="B160" s="19"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -4930,7 +4938,7 @@
     </row>
     <row r="161" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="15"/>
-      <c r="B161" s="19"/>
+      <c r="B161" s="18"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -4950,7 +4958,7 @@
     </row>
     <row r="162" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="15"/>
-      <c r="B162" s="19"/>
+      <c r="B162" s="18"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -4970,7 +4978,7 @@
     </row>
     <row r="163" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="15"/>
-      <c r="B163" s="19"/>
+      <c r="B163" s="18"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -4990,7 +4998,7 @@
     </row>
     <row r="164" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="15"/>
-      <c r="B164" s="19"/>
+      <c r="B164" s="18"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -5010,7 +5018,7 @@
     </row>
     <row r="165" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="15"/>
-      <c r="B165" s="19"/>
+      <c r="B165" s="18"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -5030,7 +5038,7 @@
     </row>
     <row r="166" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="15"/>
-      <c r="B166" s="19"/>
+      <c r="B166" s="18"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -5050,7 +5058,7 @@
     </row>
     <row r="167" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="15"/>
-      <c r="B167" s="19"/>
+      <c r="B167" s="18"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -5070,7 +5078,7 @@
     </row>
     <row r="168" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="15"/>
-      <c r="B168" s="19"/>
+      <c r="B168" s="18"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -5090,7 +5098,7 @@
     </row>
     <row r="169" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="15"/>
-      <c r="B169" s="19"/>
+      <c r="B169" s="18"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -21747,7 +21755,7 @@
     <brk id="35" max="22" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="1" max="47" man="1"/>
+    <brk id="2" max="47" man="1"/>
     <brk id="11" max="47" man="1"/>
   </colBreaks>
 </worksheet>

--- a/Assets/00.Data/Excel/MapTable.xlsx
+++ b/Assets/00.Data/Excel/MapTable.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-03\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA18D7B-72AC-4EFB-B31B-6CEFF6CF1C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F52EA2C8-F0C4-4A7A-8CF2-CB11F0D09920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MapTableTable" sheetId="16" r:id="rId1"/>
+    <sheet name="Map_Table" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MapTableTable!$B$5:$L$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MapTableTable!$A$1:$W$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Map_Table!$B$5:$L$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Map_Table!$A$1:$W$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -76,6 +76,14 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Volcano</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -398,14 +406,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MapTableIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Forest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,7 +418,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -472,14 +472,6 @@
       <color rgb="FF000000"/>
       <name val="calibri"/>
       <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -618,7 +610,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,7 +652,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,10 +664,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -912,15 +904,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="70" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.125" style="3" bestFit="1" customWidth="1"/>
@@ -958,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -983,28 +975,28 @@
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="2"/>
@@ -1020,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>4</v>
@@ -1102,13 +1094,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F6" s="11">
         <v>1</v>
@@ -1120,7 +1112,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="11">
-        <v>962001</v>
+        <v>901912</v>
       </c>
       <c r="J6" s="11">
         <v>0</v>
@@ -1142,13 +1134,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F7" s="11">
         <v>2</v>
@@ -1160,7 +1152,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="11">
-        <v>964001</v>
+        <v>901914</v>
       </c>
       <c r="J7" s="11">
         <v>0</v>
@@ -1182,13 +1174,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E8" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F8" s="11">
         <v>3</v>
@@ -1222,13 +1214,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E9" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F9" s="11">
         <v>4</v>
@@ -1262,13 +1254,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E10" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F10" s="11">
         <v>5</v>
@@ -1280,7 +1272,7 @@
         <v>2</v>
       </c>
       <c r="I10" s="11">
-        <v>964001</v>
+        <v>901912</v>
       </c>
       <c r="J10" s="11">
         <v>0</v>
@@ -1302,13 +1294,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E11" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F11" s="11">
         <v>6</v>
@@ -1320,7 +1312,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="11">
-        <v>961001</v>
+        <v>901911</v>
       </c>
       <c r="J11" s="11">
         <v>0</v>
@@ -1342,13 +1334,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E12" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F12" s="11">
         <v>1</v>
@@ -1360,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="11">
-        <v>961001</v>
+        <v>901911</v>
       </c>
       <c r="J12" s="11">
         <v>0</v>
@@ -1382,13 +1374,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E13" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F13" s="11">
         <v>2</v>
@@ -1400,10 +1392,10 @@
         <v>3</v>
       </c>
       <c r="I13" s="11">
-        <v>963001</v>
+        <v>901913</v>
       </c>
       <c r="J13" s="11">
-        <v>131001</v>
+        <v>111001</v>
       </c>
       <c r="K13" s="11">
         <v>0</v>
@@ -1422,13 +1414,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E14" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F14" s="11">
         <v>3</v>
@@ -1440,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="11">
-        <v>961001</v>
+        <v>901911</v>
       </c>
       <c r="J14" s="11">
         <v>0</v>
@@ -1462,13 +1454,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E15" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F15" s="11">
         <v>4</v>
@@ -1480,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="11">
-        <v>961001</v>
+        <v>901911</v>
       </c>
       <c r="J15" s="11">
         <v>0</v>
@@ -1502,13 +1494,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E16" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F16" s="11">
         <v>5</v>
@@ -1520,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="11">
-        <v>964001</v>
+        <v>901914</v>
       </c>
       <c r="J16" s="11">
         <v>0</v>
@@ -1542,13 +1534,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E17" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F17" s="11">
         <v>6</v>
@@ -1560,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="11">
-        <v>961001</v>
+        <v>901911</v>
       </c>
       <c r="J17" s="11">
         <v>0</v>
@@ -1582,13 +1574,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E18" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F18" s="11">
         <v>1</v>
@@ -1600,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="11">
-        <v>961001</v>
+        <v>901911</v>
       </c>
       <c r="J18" s="11">
         <v>0</v>
@@ -1622,13 +1614,13 @@
         <v>14</v>
       </c>
       <c r="C19" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E19" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F19" s="11">
         <v>2</v>
@@ -1640,7 +1632,7 @@
         <v>4</v>
       </c>
       <c r="I19" s="11">
-        <v>964001</v>
+        <v>901914</v>
       </c>
       <c r="J19" s="11">
         <v>0</v>
@@ -1662,13 +1654,13 @@
         <v>15</v>
       </c>
       <c r="C20" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E20" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F20" s="11">
         <v>3</v>
@@ -1680,7 +1672,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="11">
-        <v>962001</v>
+        <v>901912</v>
       </c>
       <c r="J20" s="11">
         <v>0</v>
@@ -1702,13 +1694,13 @@
         <v>16</v>
       </c>
       <c r="C21" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E21" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F21" s="11">
         <v>4</v>
@@ -1720,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="11">
-        <v>961001</v>
+        <v>901911</v>
       </c>
       <c r="J21" s="11">
         <v>0</v>
@@ -1742,13 +1734,13 @@
         <v>17</v>
       </c>
       <c r="C22" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E22" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F22" s="11">
         <v>5</v>
@@ -1760,7 +1752,7 @@
         <v>2</v>
       </c>
       <c r="I22" s="11">
-        <v>962001</v>
+        <v>901912</v>
       </c>
       <c r="J22" s="11">
         <v>0</v>
@@ -1782,13 +1774,13 @@
         <v>18</v>
       </c>
       <c r="C23" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E23" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F23" s="11">
         <v>6</v>
@@ -1800,7 +1792,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="11">
-        <v>961001</v>
+        <v>901911</v>
       </c>
       <c r="J23" s="11">
         <v>0</v>
@@ -1822,13 +1814,13 @@
         <v>19</v>
       </c>
       <c r="C24" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E24" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F24" s="11">
         <v>1</v>
@@ -1862,13 +1854,13 @@
         <v>20</v>
       </c>
       <c r="C25" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E25" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F25" s="11">
         <v>2</v>
@@ -1880,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="11">
-        <v>961001</v>
+        <v>901911</v>
       </c>
       <c r="J25" s="11">
         <v>0</v>
@@ -1902,13 +1894,13 @@
         <v>21</v>
       </c>
       <c r="C26" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E26" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F26" s="11">
         <v>3</v>
@@ -1942,13 +1934,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E27" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F27" s="11">
         <v>4</v>
@@ -1982,13 +1974,13 @@
         <v>23</v>
       </c>
       <c r="C28" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E28" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F28" s="11">
         <v>5</v>
@@ -2000,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="11">
-        <v>961001</v>
+        <v>901911</v>
       </c>
       <c r="J28" s="11">
         <v>0</v>
@@ -2022,13 +2014,13 @@
         <v>24</v>
       </c>
       <c r="C29" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E29" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F29" s="11">
         <v>6</v>
@@ -2062,13 +2054,13 @@
         <v>25</v>
       </c>
       <c r="C30" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E30" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F30" s="11">
         <v>1</v>
@@ -2080,7 +2072,7 @@
         <v>2</v>
       </c>
       <c r="I30" s="11">
-        <v>962001</v>
+        <v>901912</v>
       </c>
       <c r="J30" s="11">
         <v>0</v>
@@ -2102,13 +2094,13 @@
         <v>26</v>
       </c>
       <c r="C31" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E31" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F31" s="11">
         <v>2</v>
@@ -2120,7 +2112,7 @@
         <v>4</v>
       </c>
       <c r="I31" s="11">
-        <v>964001</v>
+        <v>901914</v>
       </c>
       <c r="J31" s="11">
         <v>0</v>
@@ -2142,13 +2134,13 @@
         <v>27</v>
       </c>
       <c r="C32" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E32" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F32" s="11">
         <v>3</v>
@@ -2182,13 +2174,13 @@
         <v>28</v>
       </c>
       <c r="C33" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E33" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F33" s="11">
         <v>4</v>
@@ -2200,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="11">
-        <v>961001</v>
+        <v>901911</v>
       </c>
       <c r="J33" s="11">
         <v>0</v>
@@ -2222,13 +2214,13 @@
         <v>29</v>
       </c>
       <c r="C34" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E34" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F34" s="11">
         <v>5</v>
@@ -2240,7 +2232,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="11">
-        <v>962001</v>
+        <v>901922</v>
       </c>
       <c r="J34" s="11">
         <v>0</v>
@@ -2262,13 +2254,13 @@
         <v>30</v>
       </c>
       <c r="C35" s="11">
-        <v>560001</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>23</v>
+        <v>301001</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E35" s="11">
-        <v>960001</v>
+        <v>901901</v>
       </c>
       <c r="F35" s="11">
         <v>6</v>
@@ -2486,7 +2478,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="14"/>
+      <c r="L44" s="18"/>
       <c r="M44" s="13"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -3278,7 +3270,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="14"/>
+      <c r="L80" s="18"/>
       <c r="M80" s="13"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
@@ -3838,7 +3830,7 @@
     </row>
     <row r="106" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
-      <c r="B106" s="18"/>
+      <c r="B106" s="19"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -3858,7 +3850,7 @@
     </row>
     <row r="107" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
-      <c r="B107" s="18"/>
+      <c r="B107" s="19"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -3878,7 +3870,7 @@
     </row>
     <row r="108" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
-      <c r="B108" s="18"/>
+      <c r="B108" s="19"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -3898,7 +3890,7 @@
     </row>
     <row r="109" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
-      <c r="B109" s="18"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -3918,7 +3910,7 @@
     </row>
     <row r="110" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
-      <c r="B110" s="18"/>
+      <c r="B110" s="19"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -3938,7 +3930,7 @@
     </row>
     <row r="111" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
-      <c r="B111" s="18"/>
+      <c r="B111" s="19"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -3958,7 +3950,7 @@
     </row>
     <row r="112" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
-      <c r="B112" s="18"/>
+      <c r="B112" s="19"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -3978,7 +3970,7 @@
     </row>
     <row r="113" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
-      <c r="B113" s="18"/>
+      <c r="B113" s="19"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -3998,7 +3990,7 @@
     </row>
     <row r="114" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
-      <c r="B114" s="18"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4018,7 +4010,7 @@
     </row>
     <row r="115" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15"/>
-      <c r="B115" s="18"/>
+      <c r="B115" s="19"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -4038,7 +4030,7 @@
     </row>
     <row r="116" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
-      <c r="B116" s="18"/>
+      <c r="B116" s="19"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -4058,7 +4050,7 @@
     </row>
     <row r="117" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="15"/>
-      <c r="B117" s="18"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -4078,7 +4070,7 @@
     </row>
     <row r="118" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="15"/>
-      <c r="B118" s="18"/>
+      <c r="B118" s="19"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -4098,7 +4090,7 @@
     </row>
     <row r="119" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="15"/>
-      <c r="B119" s="18"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -4118,7 +4110,7 @@
     </row>
     <row r="120" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="15"/>
-      <c r="B120" s="18"/>
+      <c r="B120" s="19"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -4138,7 +4130,7 @@
     </row>
     <row r="121" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="15"/>
-      <c r="B121" s="18"/>
+      <c r="B121" s="19"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -4158,7 +4150,7 @@
     </row>
     <row r="122" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15"/>
-      <c r="B122" s="18"/>
+      <c r="B122" s="19"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -4178,7 +4170,7 @@
     </row>
     <row r="123" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="15"/>
-      <c r="B123" s="18"/>
+      <c r="B123" s="19"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -4198,7 +4190,7 @@
     </row>
     <row r="124" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="15"/>
-      <c r="B124" s="18"/>
+      <c r="B124" s="19"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -4218,7 +4210,7 @@
     </row>
     <row r="125" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="15"/>
-      <c r="B125" s="18"/>
+      <c r="B125" s="19"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -4238,7 +4230,7 @@
     </row>
     <row r="126" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="15"/>
-      <c r="B126" s="18"/>
+      <c r="B126" s="19"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -4258,7 +4250,7 @@
     </row>
     <row r="127" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="15"/>
-      <c r="B127" s="18"/>
+      <c r="B127" s="19"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -4278,7 +4270,7 @@
     </row>
     <row r="128" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="15"/>
-      <c r="B128" s="18"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -4298,7 +4290,7 @@
     </row>
     <row r="129" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
-      <c r="B129" s="18"/>
+      <c r="B129" s="19"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -4318,7 +4310,7 @@
     </row>
     <row r="130" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="15"/>
-      <c r="B130" s="18"/>
+      <c r="B130" s="19"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -4338,7 +4330,7 @@
     </row>
     <row r="131" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="15"/>
-      <c r="B131" s="18"/>
+      <c r="B131" s="19"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -4358,7 +4350,7 @@
     </row>
     <row r="132" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15"/>
-      <c r="B132" s="18"/>
+      <c r="B132" s="19"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -4378,7 +4370,7 @@
     </row>
     <row r="133" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="15"/>
-      <c r="B133" s="18"/>
+      <c r="B133" s="19"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -4398,7 +4390,7 @@
     </row>
     <row r="134" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="15"/>
-      <c r="B134" s="18"/>
+      <c r="B134" s="19"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -4418,7 +4410,7 @@
     </row>
     <row r="135" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="15"/>
-      <c r="B135" s="18"/>
+      <c r="B135" s="19"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -4438,7 +4430,7 @@
     </row>
     <row r="136" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="15"/>
-      <c r="B136" s="18"/>
+      <c r="B136" s="19"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -4458,7 +4450,7 @@
     </row>
     <row r="137" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="15"/>
-      <c r="B137" s="18"/>
+      <c r="B137" s="19"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -4478,7 +4470,7 @@
     </row>
     <row r="138" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15"/>
-      <c r="B138" s="18"/>
+      <c r="B138" s="19"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -4498,7 +4490,7 @@
     </row>
     <row r="139" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="15"/>
-      <c r="B139" s="18"/>
+      <c r="B139" s="19"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -4518,7 +4510,7 @@
     </row>
     <row r="140" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="15"/>
-      <c r="B140" s="18"/>
+      <c r="B140" s="19"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -4538,7 +4530,7 @@
     </row>
     <row r="141" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="15"/>
-      <c r="B141" s="18"/>
+      <c r="B141" s="19"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -4558,7 +4550,7 @@
     </row>
     <row r="142" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="15"/>
-      <c r="B142" s="18"/>
+      <c r="B142" s="19"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -4578,7 +4570,7 @@
     </row>
     <row r="143" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="15"/>
-      <c r="B143" s="18"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4598,7 +4590,7 @@
     </row>
     <row r="144" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="15"/>
-      <c r="B144" s="18"/>
+      <c r="B144" s="19"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4618,7 +4610,7 @@
     </row>
     <row r="145" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="15"/>
-      <c r="B145" s="18"/>
+      <c r="B145" s="19"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4638,7 +4630,7 @@
     </row>
     <row r="146" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="15"/>
-      <c r="B146" s="18"/>
+      <c r="B146" s="19"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -4658,7 +4650,7 @@
     </row>
     <row r="147" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="15"/>
-      <c r="B147" s="18"/>
+      <c r="B147" s="19"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -4678,7 +4670,7 @@
     </row>
     <row r="148" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="15"/>
-      <c r="B148" s="18"/>
+      <c r="B148" s="19"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -4698,7 +4690,7 @@
     </row>
     <row r="149" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="15"/>
-      <c r="B149" s="18"/>
+      <c r="B149" s="19"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -4718,7 +4710,7 @@
     </row>
     <row r="150" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="15"/>
-      <c r="B150" s="18"/>
+      <c r="B150" s="19"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -4738,7 +4730,7 @@
     </row>
     <row r="151" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="15"/>
-      <c r="B151" s="18"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -4758,7 +4750,7 @@
     </row>
     <row r="152" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="15"/>
-      <c r="B152" s="18"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -4778,7 +4770,7 @@
     </row>
     <row r="153" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="15"/>
-      <c r="B153" s="18"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -4798,7 +4790,7 @@
     </row>
     <row r="154" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="15"/>
-      <c r="B154" s="18"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -4818,7 +4810,7 @@
     </row>
     <row r="155" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="15"/>
-      <c r="B155" s="18"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -4838,7 +4830,7 @@
     </row>
     <row r="156" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="15"/>
-      <c r="B156" s="18"/>
+      <c r="B156" s="19"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -4858,7 +4850,7 @@
     </row>
     <row r="157" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="15"/>
-      <c r="B157" s="18"/>
+      <c r="B157" s="19"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -4878,7 +4870,7 @@
     </row>
     <row r="158" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="15"/>
-      <c r="B158" s="18"/>
+      <c r="B158" s="19"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -4898,7 +4890,7 @@
     </row>
     <row r="159" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="15"/>
-      <c r="B159" s="18"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -4918,7 +4910,7 @@
     </row>
     <row r="160" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="15"/>
-      <c r="B160" s="18"/>
+      <c r="B160" s="19"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -4938,7 +4930,7 @@
     </row>
     <row r="161" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="15"/>
-      <c r="B161" s="18"/>
+      <c r="B161" s="19"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -4958,7 +4950,7 @@
     </row>
     <row r="162" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="15"/>
-      <c r="B162" s="18"/>
+      <c r="B162" s="19"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -4978,7 +4970,7 @@
     </row>
     <row r="163" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="15"/>
-      <c r="B163" s="18"/>
+      <c r="B163" s="19"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -4998,7 +4990,7 @@
     </row>
     <row r="164" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="15"/>
-      <c r="B164" s="18"/>
+      <c r="B164" s="19"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -5018,7 +5010,7 @@
     </row>
     <row r="165" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="15"/>
-      <c r="B165" s="18"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -5038,7 +5030,7 @@
     </row>
     <row r="166" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="15"/>
-      <c r="B166" s="18"/>
+      <c r="B166" s="19"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -5058,7 +5050,7 @@
     </row>
     <row r="167" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="15"/>
-      <c r="B167" s="18"/>
+      <c r="B167" s="19"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -5078,7 +5070,7 @@
     </row>
     <row r="168" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="15"/>
-      <c r="B168" s="18"/>
+      <c r="B168" s="19"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -5098,7 +5090,7 @@
     </row>
     <row r="169" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="15"/>
-      <c r="B169" s="18"/>
+      <c r="B169" s="19"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -21755,7 +21747,7 @@
     <brk id="35" max="22" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="2" max="47" man="1"/>
+    <brk id="1" max="47" man="1"/>
     <brk id="11" max="47" man="1"/>
   </colBreaks>
 </worksheet>

--- a/Assets/00.Data/Excel/MapTable.xlsx
+++ b/Assets/00.Data/Excel/MapTable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-07\Desktop\PYG\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA18D7B-72AC-4EFB-B31B-6CEFF6CF1C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9DC737-F782-45A0-B4BA-4A30E1A5E654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14715" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MapTableTable" sheetId="16" r:id="rId1"/>
+    <sheet name="Map_Table" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MapTableTable!$B$5:$L$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MapTableTable!$A$1:$W$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Map_Table!$B$5:$L$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Map_Table!$A$1:$W$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>

--- a/Assets/00.Data/Excel/MapTable.xlsx
+++ b/Assets/00.Data/Excel/MapTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitSources\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9DC737-F782-45A0-B4BA-4A30E1A5E654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3F375B-E58F-466C-9789-AAD4A06F9C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -913,7 +913,7 @@
   <dimension ref="A1:R1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H6" sqref="H6:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1117,10 +1117,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
-        <v>962001</v>
+        <v>0</v>
       </c>
       <c r="J6" s="11">
         <v>0</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="H7" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7" s="11">
-        <v>964001</v>
+        <v>962001</v>
       </c>
       <c r="J7" s="11">
         <v>0</v>
       </c>
       <c r="K7" s="11">
-        <v>301002</v>
+        <v>0</v>
       </c>
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
@@ -1237,10 +1237,10 @@
         <v>1</v>
       </c>
       <c r="H9" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="11">
-        <v>0</v>
+        <v>961001</v>
       </c>
       <c r="J9" s="11">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="H10" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
-        <v>964001</v>
+        <v>0</v>
       </c>
       <c r="J10" s="11">
         <v>0</v>
@@ -1317,10 +1317,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" s="11">
-        <v>961001</v>
+        <v>964001</v>
       </c>
       <c r="J11" s="11">
         <v>0</v>
@@ -1477,10 +1477,10 @@
         <v>2</v>
       </c>
       <c r="H15" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="11">
-        <v>961001</v>
+        <v>962001</v>
       </c>
       <c r="J15" s="11">
         <v>0</v>
@@ -1517,16 +1517,16 @@
         <v>2</v>
       </c>
       <c r="H16" s="11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I16" s="11">
-        <v>964001</v>
+        <v>961001</v>
       </c>
       <c r="J16" s="11">
         <v>0</v>
       </c>
       <c r="K16" s="11">
-        <v>301002</v>
+        <v>0</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="13"/>
@@ -1557,10 +1557,10 @@
         <v>2</v>
       </c>
       <c r="H17" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="11">
-        <v>961001</v>
+        <v>962001</v>
       </c>
       <c r="J17" s="11">
         <v>0</v>
@@ -1637,16 +1637,16 @@
         <v>3</v>
       </c>
       <c r="H19" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>964001</v>
+        <v>0</v>
       </c>
       <c r="J19" s="11">
         <v>0</v>
       </c>
       <c r="K19" s="11">
-        <v>301002</v>
+        <v>0</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="13"/>
@@ -1677,10 +1677,10 @@
         <v>3</v>
       </c>
       <c r="H20" s="11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20" s="11">
-        <v>962001</v>
+        <v>964001</v>
       </c>
       <c r="J20" s="11">
         <v>0</v>
@@ -1717,10 +1717,10 @@
         <v>3</v>
       </c>
       <c r="H21" s="11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I21" s="11">
-        <v>961001</v>
+        <v>964001</v>
       </c>
       <c r="J21" s="11">
         <v>0</v>
@@ -1757,10 +1757,10 @@
         <v>3</v>
       </c>
       <c r="H22" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="11">
-        <v>962001</v>
+        <v>0</v>
       </c>
       <c r="J22" s="11">
         <v>0</v>
@@ -1837,10 +1837,10 @@
         <v>4</v>
       </c>
       <c r="H24" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="11">
-        <v>0</v>
+        <v>961001</v>
       </c>
       <c r="J24" s="11">
         <v>0</v>
@@ -1877,10 +1877,10 @@
         <v>4</v>
       </c>
       <c r="H25" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" s="11">
-        <v>961001</v>
+        <v>962001</v>
       </c>
       <c r="J25" s="11">
         <v>0</v>
@@ -1917,10 +1917,10 @@
         <v>4</v>
       </c>
       <c r="H26" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="11">
-        <v>0</v>
+        <v>961001</v>
       </c>
       <c r="J26" s="11">
         <v>0</v>
@@ -1957,10 +1957,10 @@
         <v>4</v>
       </c>
       <c r="H27" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" s="11">
-        <v>0</v>
+        <v>962001</v>
       </c>
       <c r="J27" s="11">
         <v>0</v>
@@ -2077,10 +2077,10 @@
         <v>5</v>
       </c>
       <c r="H30" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>962001</v>
+        <v>0</v>
       </c>
       <c r="J30" s="11">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="11">
-        <v>301002</v>
+        <v>0</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="13"/>
@@ -2157,10 +2157,10 @@
         <v>5</v>
       </c>
       <c r="H32" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="11">
-        <v>0</v>
+        <v>961001</v>
       </c>
       <c r="J32" s="11">
         <v>0</v>
@@ -2197,10 +2197,10 @@
         <v>5</v>
       </c>
       <c r="H33" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="11">
-        <v>961001</v>
+        <v>0</v>
       </c>
       <c r="J33" s="11">
         <v>0</v>
@@ -2237,10 +2237,10 @@
         <v>5</v>
       </c>
       <c r="H34" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
-        <v>962001</v>
+        <v>0</v>
       </c>
       <c r="J34" s="11">
         <v>0</v>

--- a/Assets/00.Data/Excel/MapTable.xlsx
+++ b/Assets/00.Data/Excel/MapTable.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3F375B-E58F-466C-9789-AAD4A06F9C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292EECEC-EBC7-4A1A-AD50-0297BAF05BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11145" yWindow="3120" windowWidth="13650" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map_Table" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Map_Table!$B$5:$L$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Map_Table!$A$1:$W$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Map_Table!$B$5:$L$75</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Map_Table!$A$1:$W$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -521,7 +521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -568,15 +568,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FFBFBFBF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FFBFBFBF"/>
       </top>
@@ -617,11 +608,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -630,28 +621,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -669,13 +660,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -684,10 +672,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -910,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R1000"/>
+  <dimension ref="A1:R970"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:J34"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -954,10 +942,10 @@
     </row>
     <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="4"/>
@@ -968,7 +956,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="20" t="s">
+      <c r="L2" s="19" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="2"/>
@@ -980,8 +968,8 @@
     </row>
     <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
@@ -1006,7 +994,7 @@
       <c r="K3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="21"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="2"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -1104,7 +1092,7 @@
       <c r="C6" s="11">
         <v>560001</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="11">
@@ -1144,7 +1132,7 @@
       <c r="C7" s="11">
         <v>560001</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="11">
@@ -1184,7 +1172,7 @@
       <c r="C8" s="11">
         <v>560001</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="11">
@@ -1224,7 +1212,7 @@
       <c r="C9" s="11">
         <v>560001</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="11">
@@ -1264,7 +1252,7 @@
       <c r="C10" s="11">
         <v>560001</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="11">
@@ -1304,7 +1292,7 @@
       <c r="C11" s="11">
         <v>560001</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="11">
@@ -1344,7 +1332,7 @@
       <c r="C12" s="11">
         <v>560001</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="11">
@@ -1384,7 +1372,7 @@
       <c r="C13" s="11">
         <v>560001</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="11">
@@ -1424,7 +1412,7 @@
       <c r="C14" s="11">
         <v>560001</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="11">
@@ -1464,7 +1452,7 @@
       <c r="C15" s="11">
         <v>560001</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="11">
@@ -1504,7 +1492,7 @@
       <c r="C16" s="11">
         <v>560001</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="11">
@@ -1544,7 +1532,7 @@
       <c r="C17" s="11">
         <v>560001</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="11">
@@ -1584,7 +1572,7 @@
       <c r="C18" s="11">
         <v>560001</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="11">
@@ -1624,7 +1612,7 @@
       <c r="C19" s="11">
         <v>560001</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="11">
@@ -1664,7 +1652,7 @@
       <c r="C20" s="11">
         <v>560001</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="11">
@@ -1704,7 +1692,7 @@
       <c r="C21" s="11">
         <v>560001</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="11">
@@ -1744,7 +1732,7 @@
       <c r="C22" s="11">
         <v>560001</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="11">
@@ -1784,7 +1772,7 @@
       <c r="C23" s="11">
         <v>560001</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="11">
@@ -1824,7 +1812,7 @@
       <c r="C24" s="11">
         <v>560001</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="11">
@@ -1864,7 +1852,7 @@
       <c r="C25" s="11">
         <v>560001</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="11">
@@ -1904,7 +1892,7 @@
       <c r="C26" s="11">
         <v>560001</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="11">
@@ -1944,7 +1932,7 @@
       <c r="C27" s="11">
         <v>560001</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="11">
@@ -1984,7 +1972,7 @@
       <c r="C28" s="11">
         <v>560001</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="11">
@@ -2024,7 +2012,7 @@
       <c r="C29" s="11">
         <v>560001</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="11">
@@ -2064,7 +2052,7 @@
       <c r="C30" s="11">
         <v>560001</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="11">
@@ -2104,7 +2092,7 @@
       <c r="C31" s="11">
         <v>560001</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="11">
@@ -2144,7 +2132,7 @@
       <c r="C32" s="11">
         <v>560001</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="11">
@@ -2184,7 +2172,7 @@
       <c r="C33" s="11">
         <v>560001</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="11">
@@ -2224,7 +2212,7 @@
       <c r="C34" s="11">
         <v>560001</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="11">
@@ -2264,7 +2252,7 @@
       <c r="C35" s="11">
         <v>560001</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="11">
@@ -2299,17 +2287,17 @@
     <row r="36" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
       <c r="B36" s="16">
-        <v>31</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
       <c r="L36" s="5"/>
       <c r="M36" s="13"/>
       <c r="N36" s="5"/>
@@ -2320,8 +2308,8 @@
     </row>
     <row r="37" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
-      <c r="B37" s="17">
-        <v>32</v>
+      <c r="B37" s="16">
+        <v>62</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2342,8 +2330,8 @@
     </row>
     <row r="38" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
-      <c r="B38" s="17">
-        <v>33</v>
+      <c r="B38" s="16">
+        <v>63</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2364,8 +2352,8 @@
     </row>
     <row r="39" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
-      <c r="B39" s="17">
-        <v>34</v>
+      <c r="B39" s="16">
+        <v>64</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -2386,8 +2374,8 @@
     </row>
     <row r="40" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
-      <c r="B40" s="17">
-        <v>35</v>
+      <c r="B40" s="16">
+        <v>65</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -2408,8 +2396,8 @@
     </row>
     <row r="41" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
-      <c r="B41" s="17">
-        <v>36</v>
+      <c r="B41" s="16">
+        <v>66</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -2430,8 +2418,8 @@
     </row>
     <row r="42" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
-      <c r="B42" s="17">
-        <v>37</v>
+      <c r="B42" s="16">
+        <v>67</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -2452,8 +2440,8 @@
     </row>
     <row r="43" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
-      <c r="B43" s="17">
-        <v>38</v>
+      <c r="B43" s="16">
+        <v>68</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -2474,8 +2462,8 @@
     </row>
     <row r="44" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
-      <c r="B44" s="17">
-        <v>39</v>
+      <c r="B44" s="16">
+        <v>69</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -2486,7 +2474,7 @@
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="14"/>
+      <c r="L44" s="5"/>
       <c r="M44" s="13"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
@@ -2496,8 +2484,8 @@
     </row>
     <row r="45" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
-      <c r="B45" s="17">
-        <v>40</v>
+      <c r="B45" s="16">
+        <v>70</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -2518,8 +2506,8 @@
     </row>
     <row r="46" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
-      <c r="B46" s="17">
-        <v>41</v>
+      <c r="B46" s="16">
+        <v>71</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2540,8 +2528,8 @@
     </row>
     <row r="47" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
-      <c r="B47" s="17">
-        <v>42</v>
+      <c r="B47" s="16">
+        <v>72</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2562,8 +2550,8 @@
     </row>
     <row r="48" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
-      <c r="B48" s="17">
-        <v>43</v>
+      <c r="B48" s="16">
+        <v>73</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -2584,8 +2572,8 @@
     </row>
     <row r="49" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
-      <c r="B49" s="17">
-        <v>44</v>
+      <c r="B49" s="16">
+        <v>74</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -2606,8 +2594,8 @@
     </row>
     <row r="50" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
-      <c r="B50" s="17">
-        <v>45</v>
+      <c r="B50" s="16">
+        <v>75</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -2618,7 +2606,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
+      <c r="L50" s="14"/>
       <c r="M50" s="13"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
@@ -2628,8 +2616,8 @@
     </row>
     <row r="51" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
-      <c r="B51" s="17">
-        <v>46</v>
+      <c r="B51" s="16">
+        <v>76</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -2650,8 +2638,8 @@
     </row>
     <row r="52" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
-      <c r="B52" s="17">
-        <v>47</v>
+      <c r="B52" s="16">
+        <v>77</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -2672,8 +2660,8 @@
     </row>
     <row r="53" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
-      <c r="B53" s="17">
-        <v>48</v>
+      <c r="B53" s="16">
+        <v>78</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -2694,8 +2682,8 @@
     </row>
     <row r="54" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
-      <c r="B54" s="17">
-        <v>49</v>
+      <c r="B54" s="16">
+        <v>79</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -2716,8 +2704,8 @@
     </row>
     <row r="55" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
-      <c r="B55" s="17">
-        <v>50</v>
+      <c r="B55" s="16">
+        <v>80</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2738,8 +2726,8 @@
     </row>
     <row r="56" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
-      <c r="B56" s="17">
-        <v>51</v>
+      <c r="B56" s="16">
+        <v>81</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2760,8 +2748,8 @@
     </row>
     <row r="57" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
-      <c r="B57" s="17">
-        <v>52</v>
+      <c r="B57" s="16">
+        <v>82</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2782,8 +2770,8 @@
     </row>
     <row r="58" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
-      <c r="B58" s="17">
-        <v>53</v>
+      <c r="B58" s="16">
+        <v>83</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2804,8 +2792,8 @@
     </row>
     <row r="59" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
-      <c r="B59" s="17">
-        <v>54</v>
+      <c r="B59" s="16">
+        <v>84</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2826,8 +2814,8 @@
     </row>
     <row r="60" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
-      <c r="B60" s="17">
-        <v>55</v>
+      <c r="B60" s="16">
+        <v>85</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2848,8 +2836,8 @@
     </row>
     <row r="61" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
-      <c r="B61" s="17">
-        <v>56</v>
+      <c r="B61" s="16">
+        <v>86</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2870,8 +2858,8 @@
     </row>
     <row r="62" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
-      <c r="B62" s="17">
-        <v>57</v>
+      <c r="B62" s="16">
+        <v>87</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -2892,8 +2880,8 @@
     </row>
     <row r="63" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
-      <c r="B63" s="17">
-        <v>58</v>
+      <c r="B63" s="16">
+        <v>88</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -2914,8 +2902,8 @@
     </row>
     <row r="64" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
-      <c r="B64" s="17">
-        <v>59</v>
+      <c r="B64" s="16">
+        <v>89</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -2936,8 +2924,8 @@
     </row>
     <row r="65" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
-      <c r="B65" s="17">
-        <v>60</v>
+      <c r="B65" s="16">
+        <v>90</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
@@ -2958,8 +2946,8 @@
     </row>
     <row r="66" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
-      <c r="B66" s="17">
-        <v>61</v>
+      <c r="B66" s="16">
+        <v>91</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -2980,8 +2968,8 @@
     </row>
     <row r="67" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
-      <c r="B67" s="17">
-        <v>62</v>
+      <c r="B67" s="16">
+        <v>92</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -3002,8 +2990,8 @@
     </row>
     <row r="68" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
-      <c r="B68" s="17">
-        <v>63</v>
+      <c r="B68" s="16">
+        <v>93</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -3024,8 +3012,8 @@
     </row>
     <row r="69" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="15"/>
-      <c r="B69" s="17">
-        <v>64</v>
+      <c r="B69" s="16">
+        <v>94</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -3046,8 +3034,8 @@
     </row>
     <row r="70" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15"/>
-      <c r="B70" s="17">
-        <v>65</v>
+      <c r="B70" s="16">
+        <v>95</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -3068,8 +3056,8 @@
     </row>
     <row r="71" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15"/>
-      <c r="B71" s="17">
-        <v>66</v>
+      <c r="B71" s="16">
+        <v>96</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3090,8 +3078,8 @@
     </row>
     <row r="72" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="15"/>
-      <c r="B72" s="17">
-        <v>67</v>
+      <c r="B72" s="16">
+        <v>97</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -3112,8 +3100,8 @@
     </row>
     <row r="73" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="15"/>
-      <c r="B73" s="17">
-        <v>68</v>
+      <c r="B73" s="16">
+        <v>98</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -3134,8 +3122,8 @@
     </row>
     <row r="74" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15"/>
-      <c r="B74" s="17">
-        <v>69</v>
+      <c r="B74" s="16">
+        <v>99</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -3156,8 +3144,8 @@
     </row>
     <row r="75" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="15"/>
-      <c r="B75" s="17">
-        <v>70</v>
+      <c r="B75" s="16">
+        <v>100</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -3178,9 +3166,7 @@
     </row>
     <row r="76" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="15"/>
-      <c r="B76" s="17">
-        <v>71</v>
-      </c>
+      <c r="B76" s="17"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -3200,9 +3186,7 @@
     </row>
     <row r="77" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="15"/>
-      <c r="B77" s="17">
-        <v>72</v>
-      </c>
+      <c r="B77" s="17"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -3222,9 +3206,7 @@
     </row>
     <row r="78" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="15"/>
-      <c r="B78" s="17">
-        <v>73</v>
-      </c>
+      <c r="B78" s="17"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -3244,9 +3226,7 @@
     </row>
     <row r="79" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="15"/>
-      <c r="B79" s="17">
-        <v>74</v>
-      </c>
+      <c r="B79" s="17"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -3266,9 +3246,7 @@
     </row>
     <row r="80" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="15"/>
-      <c r="B80" s="17">
-        <v>75</v>
-      </c>
+      <c r="B80" s="17"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -3278,7 +3256,7 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="14"/>
+      <c r="L80" s="5"/>
       <c r="M80" s="13"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
@@ -3288,9 +3266,7 @@
     </row>
     <row r="81" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="15"/>
-      <c r="B81" s="17">
-        <v>76</v>
-      </c>
+      <c r="B81" s="17"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -3310,9 +3286,7 @@
     </row>
     <row r="82" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="15"/>
-      <c r="B82" s="17">
-        <v>77</v>
-      </c>
+      <c r="B82" s="17"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -3332,9 +3306,7 @@
     </row>
     <row r="83" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="15"/>
-      <c r="B83" s="17">
-        <v>78</v>
-      </c>
+      <c r="B83" s="17"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -3354,9 +3326,7 @@
     </row>
     <row r="84" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="15"/>
-      <c r="B84" s="17">
-        <v>79</v>
-      </c>
+      <c r="B84" s="17"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -3376,9 +3346,7 @@
     </row>
     <row r="85" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="15"/>
-      <c r="B85" s="17">
-        <v>80</v>
-      </c>
+      <c r="B85" s="17"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -3398,9 +3366,7 @@
     </row>
     <row r="86" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="15"/>
-      <c r="B86" s="17">
-        <v>81</v>
-      </c>
+      <c r="B86" s="17"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -3420,9 +3386,7 @@
     </row>
     <row r="87" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="15"/>
-      <c r="B87" s="17">
-        <v>82</v>
-      </c>
+      <c r="B87" s="17"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -3442,9 +3406,7 @@
     </row>
     <row r="88" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="15"/>
-      <c r="B88" s="17">
-        <v>83</v>
-      </c>
+      <c r="B88" s="17"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -3464,9 +3426,7 @@
     </row>
     <row r="89" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15"/>
-      <c r="B89" s="17">
-        <v>84</v>
-      </c>
+      <c r="B89" s="17"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -3486,9 +3446,7 @@
     </row>
     <row r="90" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15"/>
-      <c r="B90" s="17">
-        <v>85</v>
-      </c>
+      <c r="B90" s="17"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -3508,9 +3466,7 @@
     </row>
     <row r="91" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="15"/>
-      <c r="B91" s="17">
-        <v>86</v>
-      </c>
+      <c r="B91" s="17"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -3530,9 +3486,7 @@
     </row>
     <row r="92" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="15"/>
-      <c r="B92" s="17">
-        <v>87</v>
-      </c>
+      <c r="B92" s="17"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -3552,9 +3506,7 @@
     </row>
     <row r="93" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="15"/>
-      <c r="B93" s="17">
-        <v>88</v>
-      </c>
+      <c r="B93" s="17"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -3574,9 +3526,7 @@
     </row>
     <row r="94" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="15"/>
-      <c r="B94" s="17">
-        <v>89</v>
-      </c>
+      <c r="B94" s="17"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -3596,9 +3546,7 @@
     </row>
     <row r="95" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="15"/>
-      <c r="B95" s="17">
-        <v>90</v>
-      </c>
+      <c r="B95" s="17"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -3618,9 +3566,7 @@
     </row>
     <row r="96" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15"/>
-      <c r="B96" s="17">
-        <v>91</v>
-      </c>
+      <c r="B96" s="17"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -3640,9 +3586,7 @@
     </row>
     <row r="97" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="15"/>
-      <c r="B97" s="17">
-        <v>92</v>
-      </c>
+      <c r="B97" s="17"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -3662,9 +3606,7 @@
     </row>
     <row r="98" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="15"/>
-      <c r="B98" s="17">
-        <v>93</v>
-      </c>
+      <c r="B98" s="17"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -3684,9 +3626,7 @@
     </row>
     <row r="99" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="15"/>
-      <c r="B99" s="17">
-        <v>94</v>
-      </c>
+      <c r="B99" s="17"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -3706,9 +3646,7 @@
     </row>
     <row r="100" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="15"/>
-      <c r="B100" s="17">
-        <v>95</v>
-      </c>
+      <c r="B100" s="17"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -3728,9 +3666,7 @@
     </row>
     <row r="101" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="15"/>
-      <c r="B101" s="17">
-        <v>96</v>
-      </c>
+      <c r="B101" s="17"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -3750,9 +3686,7 @@
     </row>
     <row r="102" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="15"/>
-      <c r="B102" s="17">
-        <v>97</v>
-      </c>
+      <c r="B102" s="17"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -3772,9 +3706,7 @@
     </row>
     <row r="103" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="15"/>
-      <c r="B103" s="17">
-        <v>98</v>
-      </c>
+      <c r="B103" s="17"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -3794,9 +3726,7 @@
     </row>
     <row r="104" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="15"/>
-      <c r="B104" s="17">
-        <v>99</v>
-      </c>
+      <c r="B104" s="17"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -3816,9 +3746,7 @@
     </row>
     <row r="105" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="15"/>
-      <c r="B105" s="17">
-        <v>100</v>
-      </c>
+      <c r="B105" s="17"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -3838,7 +3766,7 @@
     </row>
     <row r="106" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="15"/>
-      <c r="B106" s="18"/>
+      <c r="B106" s="17"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -3858,7 +3786,7 @@
     </row>
     <row r="107" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="15"/>
-      <c r="B107" s="18"/>
+      <c r="B107" s="17"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -3878,7 +3806,7 @@
     </row>
     <row r="108" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15"/>
-      <c r="B108" s="18"/>
+      <c r="B108" s="17"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -3898,7 +3826,7 @@
     </row>
     <row r="109" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="15"/>
-      <c r="B109" s="18"/>
+      <c r="B109" s="17"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -3918,7 +3846,7 @@
     </row>
     <row r="110" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="15"/>
-      <c r="B110" s="18"/>
+      <c r="B110" s="17"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -3938,7 +3866,7 @@
     </row>
     <row r="111" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="15"/>
-      <c r="B111" s="18"/>
+      <c r="B111" s="17"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -3958,7 +3886,7 @@
     </row>
     <row r="112" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="15"/>
-      <c r="B112" s="18"/>
+      <c r="B112" s="17"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -3978,7 +3906,7 @@
     </row>
     <row r="113" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="15"/>
-      <c r="B113" s="18"/>
+      <c r="B113" s="17"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -3998,7 +3926,7 @@
     </row>
     <row r="114" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="15"/>
-      <c r="B114" s="18"/>
+      <c r="B114" s="17"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -4018,7 +3946,7 @@
     </row>
     <row r="115" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="15"/>
-      <c r="B115" s="18"/>
+      <c r="B115" s="17"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -4038,7 +3966,7 @@
     </row>
     <row r="116" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="15"/>
-      <c r="B116" s="18"/>
+      <c r="B116" s="17"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -4058,7 +3986,7 @@
     </row>
     <row r="117" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="15"/>
-      <c r="B117" s="18"/>
+      <c r="B117" s="17"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -4078,7 +4006,7 @@
     </row>
     <row r="118" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="15"/>
-      <c r="B118" s="18"/>
+      <c r="B118" s="17"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -4098,7 +4026,7 @@
     </row>
     <row r="119" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="15"/>
-      <c r="B119" s="18"/>
+      <c r="B119" s="17"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -4118,7 +4046,7 @@
     </row>
     <row r="120" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="15"/>
-      <c r="B120" s="18"/>
+      <c r="B120" s="17"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -4138,7 +4066,7 @@
     </row>
     <row r="121" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="15"/>
-      <c r="B121" s="18"/>
+      <c r="B121" s="17"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -4158,7 +4086,7 @@
     </row>
     <row r="122" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="15"/>
-      <c r="B122" s="18"/>
+      <c r="B122" s="17"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -4178,7 +4106,7 @@
     </row>
     <row r="123" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="15"/>
-      <c r="B123" s="18"/>
+      <c r="B123" s="17"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -4198,7 +4126,7 @@
     </row>
     <row r="124" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="15"/>
-      <c r="B124" s="18"/>
+      <c r="B124" s="17"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -4218,7 +4146,7 @@
     </row>
     <row r="125" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="15"/>
-      <c r="B125" s="18"/>
+      <c r="B125" s="17"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -4238,7 +4166,7 @@
     </row>
     <row r="126" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="15"/>
-      <c r="B126" s="18"/>
+      <c r="B126" s="17"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -4258,7 +4186,7 @@
     </row>
     <row r="127" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="15"/>
-      <c r="B127" s="18"/>
+      <c r="B127" s="17"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -4278,7 +4206,7 @@
     </row>
     <row r="128" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="15"/>
-      <c r="B128" s="18"/>
+      <c r="B128" s="17"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -4298,7 +4226,7 @@
     </row>
     <row r="129" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="15"/>
-      <c r="B129" s="18"/>
+      <c r="B129" s="17"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -4318,7 +4246,7 @@
     </row>
     <row r="130" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="15"/>
-      <c r="B130" s="18"/>
+      <c r="B130" s="17"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -4338,7 +4266,7 @@
     </row>
     <row r="131" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="15"/>
-      <c r="B131" s="18"/>
+      <c r="B131" s="17"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -4358,7 +4286,7 @@
     </row>
     <row r="132" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="15"/>
-      <c r="B132" s="18"/>
+      <c r="B132" s="17"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -4378,7 +4306,7 @@
     </row>
     <row r="133" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="15"/>
-      <c r="B133" s="18"/>
+      <c r="B133" s="17"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -4398,7 +4326,7 @@
     </row>
     <row r="134" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="15"/>
-      <c r="B134" s="18"/>
+      <c r="B134" s="17"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -4418,7 +4346,7 @@
     </row>
     <row r="135" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="15"/>
-      <c r="B135" s="18"/>
+      <c r="B135" s="17"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -4438,7 +4366,7 @@
     </row>
     <row r="136" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="15"/>
-      <c r="B136" s="18"/>
+      <c r="B136" s="17"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -4458,7 +4386,7 @@
     </row>
     <row r="137" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="15"/>
-      <c r="B137" s="18"/>
+      <c r="B137" s="17"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -4478,7 +4406,7 @@
     </row>
     <row r="138" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="15"/>
-      <c r="B138" s="18"/>
+      <c r="B138" s="17"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -4498,7 +4426,7 @@
     </row>
     <row r="139" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="15"/>
-      <c r="B139" s="18"/>
+      <c r="B139" s="17"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -4516,9 +4444,9 @@
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
     </row>
-    <row r="140" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="15"/>
-      <c r="B140" s="18"/>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A140" s="5"/>
+      <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -4529,16 +4457,16 @@
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
-      <c r="M140" s="13"/>
+      <c r="M140" s="5"/>
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
       <c r="P140" s="5"/>
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
     </row>
-    <row r="141" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="15"/>
-      <c r="B141" s="18"/>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A141" s="5"/>
+      <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -4549,16 +4477,16 @@
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
-      <c r="M141" s="13"/>
+      <c r="M141" s="5"/>
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
       <c r="P141" s="5"/>
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
     </row>
-    <row r="142" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="15"/>
-      <c r="B142" s="18"/>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A142" s="5"/>
+      <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -4569,16 +4497,16 @@
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
-      <c r="M142" s="13"/>
+      <c r="M142" s="5"/>
       <c r="N142" s="5"/>
       <c r="O142" s="5"/>
       <c r="P142" s="5"/>
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
     </row>
-    <row r="143" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="15"/>
-      <c r="B143" s="18"/>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A143" s="5"/>
+      <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -4589,16 +4517,16 @@
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
-      <c r="M143" s="13"/>
+      <c r="M143" s="5"/>
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
       <c r="P143" s="5"/>
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
     </row>
-    <row r="144" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="15"/>
-      <c r="B144" s="18"/>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A144" s="5"/>
+      <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -4609,16 +4537,16 @@
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
-      <c r="M144" s="13"/>
+      <c r="M144" s="5"/>
       <c r="N144" s="5"/>
       <c r="O144" s="5"/>
       <c r="P144" s="5"/>
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
     </row>
-    <row r="145" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="15"/>
-      <c r="B145" s="18"/>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A145" s="5"/>
+      <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -4629,16 +4557,16 @@
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
-      <c r="M145" s="13"/>
+      <c r="M145" s="5"/>
       <c r="N145" s="5"/>
       <c r="O145" s="5"/>
       <c r="P145" s="5"/>
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
     </row>
-    <row r="146" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="15"/>
-      <c r="B146" s="18"/>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A146" s="5"/>
+      <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -4649,16 +4577,16 @@
       <c r="J146" s="5"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
-      <c r="M146" s="13"/>
+      <c r="M146" s="5"/>
       <c r="N146" s="5"/>
       <c r="O146" s="5"/>
       <c r="P146" s="5"/>
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
     </row>
-    <row r="147" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="15"/>
-      <c r="B147" s="18"/>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A147" s="5"/>
+      <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -4669,16 +4597,16 @@
       <c r="J147" s="5"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
-      <c r="M147" s="13"/>
+      <c r="M147" s="5"/>
       <c r="N147" s="5"/>
       <c r="O147" s="5"/>
       <c r="P147" s="5"/>
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
     </row>
-    <row r="148" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="15"/>
-      <c r="B148" s="18"/>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A148" s="5"/>
+      <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -4689,16 +4617,16 @@
       <c r="J148" s="5"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
-      <c r="M148" s="13"/>
+      <c r="M148" s="5"/>
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
       <c r="P148" s="5"/>
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
     </row>
-    <row r="149" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="15"/>
-      <c r="B149" s="18"/>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A149" s="5"/>
+      <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -4709,16 +4637,16 @@
       <c r="J149" s="5"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
-      <c r="M149" s="13"/>
+      <c r="M149" s="5"/>
       <c r="N149" s="5"/>
       <c r="O149" s="5"/>
       <c r="P149" s="5"/>
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
     </row>
-    <row r="150" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="15"/>
-      <c r="B150" s="18"/>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A150" s="5"/>
+      <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -4729,16 +4657,16 @@
       <c r="J150" s="5"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
-      <c r="M150" s="13"/>
+      <c r="M150" s="5"/>
       <c r="N150" s="5"/>
       <c r="O150" s="5"/>
       <c r="P150" s="5"/>
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
     </row>
-    <row r="151" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="15"/>
-      <c r="B151" s="18"/>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A151" s="5"/>
+      <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -4749,16 +4677,16 @@
       <c r="J151" s="5"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
-      <c r="M151" s="13"/>
+      <c r="M151" s="5"/>
       <c r="N151" s="5"/>
       <c r="O151" s="5"/>
       <c r="P151" s="5"/>
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
     </row>
-    <row r="152" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="15"/>
-      <c r="B152" s="18"/>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A152" s="5"/>
+      <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -4769,16 +4697,16 @@
       <c r="J152" s="5"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
-      <c r="M152" s="13"/>
+      <c r="M152" s="5"/>
       <c r="N152" s="5"/>
       <c r="O152" s="5"/>
       <c r="P152" s="5"/>
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
     </row>
-    <row r="153" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="15"/>
-      <c r="B153" s="18"/>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A153" s="5"/>
+      <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -4789,16 +4717,16 @@
       <c r="J153" s="5"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
-      <c r="M153" s="13"/>
+      <c r="M153" s="5"/>
       <c r="N153" s="5"/>
       <c r="O153" s="5"/>
       <c r="P153" s="5"/>
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
     </row>
-    <row r="154" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="15"/>
-      <c r="B154" s="18"/>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A154" s="5"/>
+      <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -4809,16 +4737,16 @@
       <c r="J154" s="5"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
-      <c r="M154" s="13"/>
+      <c r="M154" s="5"/>
       <c r="N154" s="5"/>
       <c r="O154" s="5"/>
       <c r="P154" s="5"/>
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
     </row>
-    <row r="155" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="15"/>
-      <c r="B155" s="18"/>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A155" s="5"/>
+      <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -4829,16 +4757,16 @@
       <c r="J155" s="5"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
-      <c r="M155" s="13"/>
+      <c r="M155" s="5"/>
       <c r="N155" s="5"/>
       <c r="O155" s="5"/>
       <c r="P155" s="5"/>
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
     </row>
-    <row r="156" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="15"/>
-      <c r="B156" s="18"/>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A156" s="5"/>
+      <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -4849,16 +4777,16 @@
       <c r="J156" s="5"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
-      <c r="M156" s="13"/>
+      <c r="M156" s="5"/>
       <c r="N156" s="5"/>
       <c r="O156" s="5"/>
       <c r="P156" s="5"/>
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
     </row>
-    <row r="157" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="15"/>
-      <c r="B157" s="18"/>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A157" s="5"/>
+      <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -4869,16 +4797,16 @@
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
-      <c r="M157" s="13"/>
+      <c r="M157" s="5"/>
       <c r="N157" s="5"/>
       <c r="O157" s="5"/>
       <c r="P157" s="5"/>
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
     </row>
-    <row r="158" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="15"/>
-      <c r="B158" s="18"/>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A158" s="5"/>
+      <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
@@ -4889,16 +4817,16 @@
       <c r="J158" s="5"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
-      <c r="M158" s="13"/>
+      <c r="M158" s="5"/>
       <c r="N158" s="5"/>
       <c r="O158" s="5"/>
       <c r="P158" s="5"/>
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
     </row>
-    <row r="159" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="15"/>
-      <c r="B159" s="18"/>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A159" s="5"/>
+      <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
@@ -4909,16 +4837,16 @@
       <c r="J159" s="5"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
-      <c r="M159" s="13"/>
+      <c r="M159" s="5"/>
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
       <c r="P159" s="5"/>
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
     </row>
-    <row r="160" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="15"/>
-      <c r="B160" s="18"/>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A160" s="5"/>
+      <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
@@ -4929,16 +4857,16 @@
       <c r="J160" s="5"/>
       <c r="K160" s="5"/>
       <c r="L160" s="5"/>
-      <c r="M160" s="13"/>
+      <c r="M160" s="5"/>
       <c r="N160" s="5"/>
       <c r="O160" s="5"/>
       <c r="P160" s="5"/>
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
     </row>
-    <row r="161" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="15"/>
-      <c r="B161" s="18"/>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A161" s="5"/>
+      <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
@@ -4949,16 +4877,16 @@
       <c r="J161" s="5"/>
       <c r="K161" s="5"/>
       <c r="L161" s="5"/>
-      <c r="M161" s="13"/>
+      <c r="M161" s="5"/>
       <c r="N161" s="5"/>
       <c r="O161" s="5"/>
       <c r="P161" s="5"/>
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
     </row>
-    <row r="162" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="15"/>
-      <c r="B162" s="18"/>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A162" s="5"/>
+      <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
@@ -4969,16 +4897,16 @@
       <c r="J162" s="5"/>
       <c r="K162" s="5"/>
       <c r="L162" s="5"/>
-      <c r="M162" s="13"/>
+      <c r="M162" s="5"/>
       <c r="N162" s="5"/>
       <c r="O162" s="5"/>
       <c r="P162" s="5"/>
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
     </row>
-    <row r="163" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="15"/>
-      <c r="B163" s="18"/>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A163" s="5"/>
+      <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
@@ -4989,16 +4917,16 @@
       <c r="J163" s="5"/>
       <c r="K163" s="5"/>
       <c r="L163" s="5"/>
-      <c r="M163" s="13"/>
+      <c r="M163" s="5"/>
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
       <c r="P163" s="5"/>
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
     </row>
-    <row r="164" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="15"/>
-      <c r="B164" s="18"/>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A164" s="5"/>
+      <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
@@ -5009,16 +4937,16 @@
       <c r="J164" s="5"/>
       <c r="K164" s="5"/>
       <c r="L164" s="5"/>
-      <c r="M164" s="13"/>
+      <c r="M164" s="5"/>
       <c r="N164" s="5"/>
       <c r="O164" s="5"/>
       <c r="P164" s="5"/>
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
     </row>
-    <row r="165" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="15"/>
-      <c r="B165" s="18"/>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A165" s="5"/>
+      <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
@@ -5029,16 +4957,16 @@
       <c r="J165" s="5"/>
       <c r="K165" s="5"/>
       <c r="L165" s="5"/>
-      <c r="M165" s="13"/>
+      <c r="M165" s="5"/>
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
       <c r="P165" s="5"/>
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
     </row>
-    <row r="166" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="15"/>
-      <c r="B166" s="18"/>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A166" s="5"/>
+      <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
@@ -5049,16 +4977,16 @@
       <c r="J166" s="5"/>
       <c r="K166" s="5"/>
       <c r="L166" s="5"/>
-      <c r="M166" s="13"/>
+      <c r="M166" s="5"/>
       <c r="N166" s="5"/>
       <c r="O166" s="5"/>
       <c r="P166" s="5"/>
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
     </row>
-    <row r="167" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="15"/>
-      <c r="B167" s="18"/>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A167" s="5"/>
+      <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
@@ -5069,16 +4997,16 @@
       <c r="J167" s="5"/>
       <c r="K167" s="5"/>
       <c r="L167" s="5"/>
-      <c r="M167" s="13"/>
+      <c r="M167" s="5"/>
       <c r="N167" s="5"/>
       <c r="O167" s="5"/>
       <c r="P167" s="5"/>
       <c r="Q167" s="5"/>
       <c r="R167" s="5"/>
     </row>
-    <row r="168" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="15"/>
-      <c r="B168" s="18"/>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A168" s="5"/>
+      <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
@@ -5089,16 +5017,16 @@
       <c r="J168" s="5"/>
       <c r="K168" s="5"/>
       <c r="L168" s="5"/>
-      <c r="M168" s="13"/>
+      <c r="M168" s="5"/>
       <c r="N168" s="5"/>
       <c r="O168" s="5"/>
       <c r="P168" s="5"/>
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
     </row>
-    <row r="169" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="15"/>
-      <c r="B169" s="18"/>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A169" s="5"/>
+      <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
@@ -5109,7 +5037,7 @@
       <c r="J169" s="5"/>
       <c r="K169" s="5"/>
       <c r="L169" s="5"/>
-      <c r="M169" s="13"/>
+      <c r="M169" s="5"/>
       <c r="N169" s="5"/>
       <c r="O169" s="5"/>
       <c r="P169" s="5"/>
@@ -21136,610 +21064,10 @@
       <c r="Q970" s="5"/>
       <c r="R970" s="5"/>
     </row>
-    <row r="971" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A971" s="5"/>
-      <c r="B971" s="5"/>
-      <c r="C971" s="5"/>
-      <c r="D971" s="5"/>
-      <c r="E971" s="5"/>
-      <c r="F971" s="5"/>
-      <c r="G971" s="5"/>
-      <c r="H971" s="5"/>
-      <c r="I971" s="5"/>
-      <c r="J971" s="5"/>
-      <c r="K971" s="5"/>
-      <c r="L971" s="5"/>
-      <c r="M971" s="5"/>
-      <c r="N971" s="5"/>
-      <c r="O971" s="5"/>
-      <c r="P971" s="5"/>
-      <c r="Q971" s="5"/>
-      <c r="R971" s="5"/>
-    </row>
-    <row r="972" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A972" s="5"/>
-      <c r="B972" s="5"/>
-      <c r="C972" s="5"/>
-      <c r="D972" s="5"/>
-      <c r="E972" s="5"/>
-      <c r="F972" s="5"/>
-      <c r="G972" s="5"/>
-      <c r="H972" s="5"/>
-      <c r="I972" s="5"/>
-      <c r="J972" s="5"/>
-      <c r="K972" s="5"/>
-      <c r="L972" s="5"/>
-      <c r="M972" s="5"/>
-      <c r="N972" s="5"/>
-      <c r="O972" s="5"/>
-      <c r="P972" s="5"/>
-      <c r="Q972" s="5"/>
-      <c r="R972" s="5"/>
-    </row>
-    <row r="973" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A973" s="5"/>
-      <c r="B973" s="5"/>
-      <c r="C973" s="5"/>
-      <c r="D973" s="5"/>
-      <c r="E973" s="5"/>
-      <c r="F973" s="5"/>
-      <c r="G973" s="5"/>
-      <c r="H973" s="5"/>
-      <c r="I973" s="5"/>
-      <c r="J973" s="5"/>
-      <c r="K973" s="5"/>
-      <c r="L973" s="5"/>
-      <c r="M973" s="5"/>
-      <c r="N973" s="5"/>
-      <c r="O973" s="5"/>
-      <c r="P973" s="5"/>
-      <c r="Q973" s="5"/>
-      <c r="R973" s="5"/>
-    </row>
-    <row r="974" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A974" s="5"/>
-      <c r="B974" s="5"/>
-      <c r="C974" s="5"/>
-      <c r="D974" s="5"/>
-      <c r="E974" s="5"/>
-      <c r="F974" s="5"/>
-      <c r="G974" s="5"/>
-      <c r="H974" s="5"/>
-      <c r="I974" s="5"/>
-      <c r="J974" s="5"/>
-      <c r="K974" s="5"/>
-      <c r="L974" s="5"/>
-      <c r="M974" s="5"/>
-      <c r="N974" s="5"/>
-      <c r="O974" s="5"/>
-      <c r="P974" s="5"/>
-      <c r="Q974" s="5"/>
-      <c r="R974" s="5"/>
-    </row>
-    <row r="975" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A975" s="5"/>
-      <c r="B975" s="5"/>
-      <c r="C975" s="5"/>
-      <c r="D975" s="5"/>
-      <c r="E975" s="5"/>
-      <c r="F975" s="5"/>
-      <c r="G975" s="5"/>
-      <c r="H975" s="5"/>
-      <c r="I975" s="5"/>
-      <c r="J975" s="5"/>
-      <c r="K975" s="5"/>
-      <c r="L975" s="5"/>
-      <c r="M975" s="5"/>
-      <c r="N975" s="5"/>
-      <c r="O975" s="5"/>
-      <c r="P975" s="5"/>
-      <c r="Q975" s="5"/>
-      <c r="R975" s="5"/>
-    </row>
-    <row r="976" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A976" s="5"/>
-      <c r="B976" s="5"/>
-      <c r="C976" s="5"/>
-      <c r="D976" s="5"/>
-      <c r="E976" s="5"/>
-      <c r="F976" s="5"/>
-      <c r="G976" s="5"/>
-      <c r="H976" s="5"/>
-      <c r="I976" s="5"/>
-      <c r="J976" s="5"/>
-      <c r="K976" s="5"/>
-      <c r="L976" s="5"/>
-      <c r="M976" s="5"/>
-      <c r="N976" s="5"/>
-      <c r="O976" s="5"/>
-      <c r="P976" s="5"/>
-      <c r="Q976" s="5"/>
-      <c r="R976" s="5"/>
-    </row>
-    <row r="977" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A977" s="5"/>
-      <c r="B977" s="5"/>
-      <c r="C977" s="5"/>
-      <c r="D977" s="5"/>
-      <c r="E977" s="5"/>
-      <c r="F977" s="5"/>
-      <c r="G977" s="5"/>
-      <c r="H977" s="5"/>
-      <c r="I977" s="5"/>
-      <c r="J977" s="5"/>
-      <c r="K977" s="5"/>
-      <c r="L977" s="5"/>
-      <c r="M977" s="5"/>
-      <c r="N977" s="5"/>
-      <c r="O977" s="5"/>
-      <c r="P977" s="5"/>
-      <c r="Q977" s="5"/>
-      <c r="R977" s="5"/>
-    </row>
-    <row r="978" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A978" s="5"/>
-      <c r="B978" s="5"/>
-      <c r="C978" s="5"/>
-      <c r="D978" s="5"/>
-      <c r="E978" s="5"/>
-      <c r="F978" s="5"/>
-      <c r="G978" s="5"/>
-      <c r="H978" s="5"/>
-      <c r="I978" s="5"/>
-      <c r="J978" s="5"/>
-      <c r="K978" s="5"/>
-      <c r="L978" s="5"/>
-      <c r="M978" s="5"/>
-      <c r="N978" s="5"/>
-      <c r="O978" s="5"/>
-      <c r="P978" s="5"/>
-      <c r="Q978" s="5"/>
-      <c r="R978" s="5"/>
-    </row>
-    <row r="979" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A979" s="5"/>
-      <c r="B979" s="5"/>
-      <c r="C979" s="5"/>
-      <c r="D979" s="5"/>
-      <c r="E979" s="5"/>
-      <c r="F979" s="5"/>
-      <c r="G979" s="5"/>
-      <c r="H979" s="5"/>
-      <c r="I979" s="5"/>
-      <c r="J979" s="5"/>
-      <c r="K979" s="5"/>
-      <c r="L979" s="5"/>
-      <c r="M979" s="5"/>
-      <c r="N979" s="5"/>
-      <c r="O979" s="5"/>
-      <c r="P979" s="5"/>
-      <c r="Q979" s="5"/>
-      <c r="R979" s="5"/>
-    </row>
-    <row r="980" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A980" s="5"/>
-      <c r="B980" s="5"/>
-      <c r="C980" s="5"/>
-      <c r="D980" s="5"/>
-      <c r="E980" s="5"/>
-      <c r="F980" s="5"/>
-      <c r="G980" s="5"/>
-      <c r="H980" s="5"/>
-      <c r="I980" s="5"/>
-      <c r="J980" s="5"/>
-      <c r="K980" s="5"/>
-      <c r="L980" s="5"/>
-      <c r="M980" s="5"/>
-      <c r="N980" s="5"/>
-      <c r="O980" s="5"/>
-      <c r="P980" s="5"/>
-      <c r="Q980" s="5"/>
-      <c r="R980" s="5"/>
-    </row>
-    <row r="981" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A981" s="5"/>
-      <c r="B981" s="5"/>
-      <c r="C981" s="5"/>
-      <c r="D981" s="5"/>
-      <c r="E981" s="5"/>
-      <c r="F981" s="5"/>
-      <c r="G981" s="5"/>
-      <c r="H981" s="5"/>
-      <c r="I981" s="5"/>
-      <c r="J981" s="5"/>
-      <c r="K981" s="5"/>
-      <c r="L981" s="5"/>
-      <c r="M981" s="5"/>
-      <c r="N981" s="5"/>
-      <c r="O981" s="5"/>
-      <c r="P981" s="5"/>
-      <c r="Q981" s="5"/>
-      <c r="R981" s="5"/>
-    </row>
-    <row r="982" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A982" s="5"/>
-      <c r="B982" s="5"/>
-      <c r="C982" s="5"/>
-      <c r="D982" s="5"/>
-      <c r="E982" s="5"/>
-      <c r="F982" s="5"/>
-      <c r="G982" s="5"/>
-      <c r="H982" s="5"/>
-      <c r="I982" s="5"/>
-      <c r="J982" s="5"/>
-      <c r="K982" s="5"/>
-      <c r="L982" s="5"/>
-      <c r="M982" s="5"/>
-      <c r="N982" s="5"/>
-      <c r="O982" s="5"/>
-      <c r="P982" s="5"/>
-      <c r="Q982" s="5"/>
-      <c r="R982" s="5"/>
-    </row>
-    <row r="983" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A983" s="5"/>
-      <c r="B983" s="5"/>
-      <c r="C983" s="5"/>
-      <c r="D983" s="5"/>
-      <c r="E983" s="5"/>
-      <c r="F983" s="5"/>
-      <c r="G983" s="5"/>
-      <c r="H983" s="5"/>
-      <c r="I983" s="5"/>
-      <c r="J983" s="5"/>
-      <c r="K983" s="5"/>
-      <c r="L983" s="5"/>
-      <c r="M983" s="5"/>
-      <c r="N983" s="5"/>
-      <c r="O983" s="5"/>
-      <c r="P983" s="5"/>
-      <c r="Q983" s="5"/>
-      <c r="R983" s="5"/>
-    </row>
-    <row r="984" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A984" s="5"/>
-      <c r="B984" s="5"/>
-      <c r="C984" s="5"/>
-      <c r="D984" s="5"/>
-      <c r="E984" s="5"/>
-      <c r="F984" s="5"/>
-      <c r="G984" s="5"/>
-      <c r="H984" s="5"/>
-      <c r="I984" s="5"/>
-      <c r="J984" s="5"/>
-      <c r="K984" s="5"/>
-      <c r="L984" s="5"/>
-      <c r="M984" s="5"/>
-      <c r="N984" s="5"/>
-      <c r="O984" s="5"/>
-      <c r="P984" s="5"/>
-      <c r="Q984" s="5"/>
-      <c r="R984" s="5"/>
-    </row>
-    <row r="985" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A985" s="5"/>
-      <c r="B985" s="5"/>
-      <c r="C985" s="5"/>
-      <c r="D985" s="5"/>
-      <c r="E985" s="5"/>
-      <c r="F985" s="5"/>
-      <c r="G985" s="5"/>
-      <c r="H985" s="5"/>
-      <c r="I985" s="5"/>
-      <c r="J985" s="5"/>
-      <c r="K985" s="5"/>
-      <c r="L985" s="5"/>
-      <c r="M985" s="5"/>
-      <c r="N985" s="5"/>
-      <c r="O985" s="5"/>
-      <c r="P985" s="5"/>
-      <c r="Q985" s="5"/>
-      <c r="R985" s="5"/>
-    </row>
-    <row r="986" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A986" s="5"/>
-      <c r="B986" s="5"/>
-      <c r="C986" s="5"/>
-      <c r="D986" s="5"/>
-      <c r="E986" s="5"/>
-      <c r="F986" s="5"/>
-      <c r="G986" s="5"/>
-      <c r="H986" s="5"/>
-      <c r="I986" s="5"/>
-      <c r="J986" s="5"/>
-      <c r="K986" s="5"/>
-      <c r="L986" s="5"/>
-      <c r="M986" s="5"/>
-      <c r="N986" s="5"/>
-      <c r="O986" s="5"/>
-      <c r="P986" s="5"/>
-      <c r="Q986" s="5"/>
-      <c r="R986" s="5"/>
-    </row>
-    <row r="987" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A987" s="5"/>
-      <c r="B987" s="5"/>
-      <c r="C987" s="5"/>
-      <c r="D987" s="5"/>
-      <c r="E987" s="5"/>
-      <c r="F987" s="5"/>
-      <c r="G987" s="5"/>
-      <c r="H987" s="5"/>
-      <c r="I987" s="5"/>
-      <c r="J987" s="5"/>
-      <c r="K987" s="5"/>
-      <c r="L987" s="5"/>
-      <c r="M987" s="5"/>
-      <c r="N987" s="5"/>
-      <c r="O987" s="5"/>
-      <c r="P987" s="5"/>
-      <c r="Q987" s="5"/>
-      <c r="R987" s="5"/>
-    </row>
-    <row r="988" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A988" s="5"/>
-      <c r="B988" s="5"/>
-      <c r="C988" s="5"/>
-      <c r="D988" s="5"/>
-      <c r="E988" s="5"/>
-      <c r="F988" s="5"/>
-      <c r="G988" s="5"/>
-      <c r="H988" s="5"/>
-      <c r="I988" s="5"/>
-      <c r="J988" s="5"/>
-      <c r="K988" s="5"/>
-      <c r="L988" s="5"/>
-      <c r="M988" s="5"/>
-      <c r="N988" s="5"/>
-      <c r="O988" s="5"/>
-      <c r="P988" s="5"/>
-      <c r="Q988" s="5"/>
-      <c r="R988" s="5"/>
-    </row>
-    <row r="989" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A989" s="5"/>
-      <c r="B989" s="5"/>
-      <c r="C989" s="5"/>
-      <c r="D989" s="5"/>
-      <c r="E989" s="5"/>
-      <c r="F989" s="5"/>
-      <c r="G989" s="5"/>
-      <c r="H989" s="5"/>
-      <c r="I989" s="5"/>
-      <c r="J989" s="5"/>
-      <c r="K989" s="5"/>
-      <c r="L989" s="5"/>
-      <c r="M989" s="5"/>
-      <c r="N989" s="5"/>
-      <c r="O989" s="5"/>
-      <c r="P989" s="5"/>
-      <c r="Q989" s="5"/>
-      <c r="R989" s="5"/>
-    </row>
-    <row r="990" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A990" s="5"/>
-      <c r="B990" s="5"/>
-      <c r="C990" s="5"/>
-      <c r="D990" s="5"/>
-      <c r="E990" s="5"/>
-      <c r="F990" s="5"/>
-      <c r="G990" s="5"/>
-      <c r="H990" s="5"/>
-      <c r="I990" s="5"/>
-      <c r="J990" s="5"/>
-      <c r="K990" s="5"/>
-      <c r="L990" s="5"/>
-      <c r="M990" s="5"/>
-      <c r="N990" s="5"/>
-      <c r="O990" s="5"/>
-      <c r="P990" s="5"/>
-      <c r="Q990" s="5"/>
-      <c r="R990" s="5"/>
-    </row>
-    <row r="991" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A991" s="5"/>
-      <c r="B991" s="5"/>
-      <c r="C991" s="5"/>
-      <c r="D991" s="5"/>
-      <c r="E991" s="5"/>
-      <c r="F991" s="5"/>
-      <c r="G991" s="5"/>
-      <c r="H991" s="5"/>
-      <c r="I991" s="5"/>
-      <c r="J991" s="5"/>
-      <c r="K991" s="5"/>
-      <c r="L991" s="5"/>
-      <c r="M991" s="5"/>
-      <c r="N991" s="5"/>
-      <c r="O991" s="5"/>
-      <c r="P991" s="5"/>
-      <c r="Q991" s="5"/>
-      <c r="R991" s="5"/>
-    </row>
-    <row r="992" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A992" s="5"/>
-      <c r="B992" s="5"/>
-      <c r="C992" s="5"/>
-      <c r="D992" s="5"/>
-      <c r="E992" s="5"/>
-      <c r="F992" s="5"/>
-      <c r="G992" s="5"/>
-      <c r="H992" s="5"/>
-      <c r="I992" s="5"/>
-      <c r="J992" s="5"/>
-      <c r="K992" s="5"/>
-      <c r="L992" s="5"/>
-      <c r="M992" s="5"/>
-      <c r="N992" s="5"/>
-      <c r="O992" s="5"/>
-      <c r="P992" s="5"/>
-      <c r="Q992" s="5"/>
-      <c r="R992" s="5"/>
-    </row>
-    <row r="993" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A993" s="5"/>
-      <c r="B993" s="5"/>
-      <c r="C993" s="5"/>
-      <c r="D993" s="5"/>
-      <c r="E993" s="5"/>
-      <c r="F993" s="5"/>
-      <c r="G993" s="5"/>
-      <c r="H993" s="5"/>
-      <c r="I993" s="5"/>
-      <c r="J993" s="5"/>
-      <c r="K993" s="5"/>
-      <c r="L993" s="5"/>
-      <c r="M993" s="5"/>
-      <c r="N993" s="5"/>
-      <c r="O993" s="5"/>
-      <c r="P993" s="5"/>
-      <c r="Q993" s="5"/>
-      <c r="R993" s="5"/>
-    </row>
-    <row r="994" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A994" s="5"/>
-      <c r="B994" s="5"/>
-      <c r="C994" s="5"/>
-      <c r="D994" s="5"/>
-      <c r="E994" s="5"/>
-      <c r="F994" s="5"/>
-      <c r="G994" s="5"/>
-      <c r="H994" s="5"/>
-      <c r="I994" s="5"/>
-      <c r="J994" s="5"/>
-      <c r="K994" s="5"/>
-      <c r="L994" s="5"/>
-      <c r="M994" s="5"/>
-      <c r="N994" s="5"/>
-      <c r="O994" s="5"/>
-      <c r="P994" s="5"/>
-      <c r="Q994" s="5"/>
-      <c r="R994" s="5"/>
-    </row>
-    <row r="995" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A995" s="5"/>
-      <c r="B995" s="5"/>
-      <c r="C995" s="5"/>
-      <c r="D995" s="5"/>
-      <c r="E995" s="5"/>
-      <c r="F995" s="5"/>
-      <c r="G995" s="5"/>
-      <c r="H995" s="5"/>
-      <c r="I995" s="5"/>
-      <c r="J995" s="5"/>
-      <c r="K995" s="5"/>
-      <c r="L995" s="5"/>
-      <c r="M995" s="5"/>
-      <c r="N995" s="5"/>
-      <c r="O995" s="5"/>
-      <c r="P995" s="5"/>
-      <c r="Q995" s="5"/>
-      <c r="R995" s="5"/>
-    </row>
-    <row r="996" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A996" s="5"/>
-      <c r="B996" s="5"/>
-      <c r="C996" s="5"/>
-      <c r="D996" s="5"/>
-      <c r="E996" s="5"/>
-      <c r="F996" s="5"/>
-      <c r="G996" s="5"/>
-      <c r="H996" s="5"/>
-      <c r="I996" s="5"/>
-      <c r="J996" s="5"/>
-      <c r="K996" s="5"/>
-      <c r="L996" s="5"/>
-      <c r="M996" s="5"/>
-      <c r="N996" s="5"/>
-      <c r="O996" s="5"/>
-      <c r="P996" s="5"/>
-      <c r="Q996" s="5"/>
-      <c r="R996" s="5"/>
-    </row>
-    <row r="997" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A997" s="5"/>
-      <c r="B997" s="5"/>
-      <c r="C997" s="5"/>
-      <c r="D997" s="5"/>
-      <c r="E997" s="5"/>
-      <c r="F997" s="5"/>
-      <c r="G997" s="5"/>
-      <c r="H997" s="5"/>
-      <c r="I997" s="5"/>
-      <c r="J997" s="5"/>
-      <c r="K997" s="5"/>
-      <c r="L997" s="5"/>
-      <c r="M997" s="5"/>
-      <c r="N997" s="5"/>
-      <c r="O997" s="5"/>
-      <c r="P997" s="5"/>
-      <c r="Q997" s="5"/>
-      <c r="R997" s="5"/>
-    </row>
-    <row r="998" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A998" s="5"/>
-      <c r="B998" s="5"/>
-      <c r="C998" s="5"/>
-      <c r="D998" s="5"/>
-      <c r="E998" s="5"/>
-      <c r="F998" s="5"/>
-      <c r="G998" s="5"/>
-      <c r="H998" s="5"/>
-      <c r="I998" s="5"/>
-      <c r="J998" s="5"/>
-      <c r="K998" s="5"/>
-      <c r="L998" s="5"/>
-      <c r="M998" s="5"/>
-      <c r="N998" s="5"/>
-      <c r="O998" s="5"/>
-      <c r="P998" s="5"/>
-      <c r="Q998" s="5"/>
-      <c r="R998" s="5"/>
-    </row>
-    <row r="999" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A999" s="5"/>
-      <c r="B999" s="5"/>
-      <c r="C999" s="5"/>
-      <c r="D999" s="5"/>
-      <c r="E999" s="5"/>
-      <c r="F999" s="5"/>
-      <c r="G999" s="5"/>
-      <c r="H999" s="5"/>
-      <c r="I999" s="5"/>
-      <c r="J999" s="5"/>
-      <c r="K999" s="5"/>
-      <c r="L999" s="5"/>
-      <c r="M999" s="5"/>
-      <c r="N999" s="5"/>
-      <c r="O999" s="5"/>
-      <c r="P999" s="5"/>
-      <c r="Q999" s="5"/>
-      <c r="R999" s="5"/>
-    </row>
-    <row r="1000" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1000" s="5"/>
-      <c r="B1000" s="5"/>
-      <c r="C1000" s="5"/>
-      <c r="D1000" s="5"/>
-      <c r="E1000" s="5"/>
-      <c r="F1000" s="5"/>
-      <c r="G1000" s="5"/>
-      <c r="H1000" s="5"/>
-      <c r="I1000" s="5"/>
-      <c r="J1000" s="5"/>
-      <c r="K1000" s="5"/>
-      <c r="L1000" s="5"/>
-      <c r="M1000" s="5"/>
-      <c r="N1000" s="5"/>
-      <c r="O1000" s="5"/>
-      <c r="P1000" s="5"/>
-      <c r="Q1000" s="5"/>
-      <c r="R1000" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B5:L105" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:L105">
-      <sortCondition ref="B5:B105"/>
+  <autoFilter ref="B5:L75" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B6:L75">
+      <sortCondition ref="B5:B75"/>
     </sortState>
   </autoFilter>
   <mergeCells count="3">
@@ -21751,12 +21079,12 @@
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="30" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="3" max="26" man="1"/>
+    <brk id="3" max="22" man="1"/>
     <brk id="35" max="22" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="2" max="47" man="1"/>
-    <brk id="11" max="47" man="1"/>
+    <brk id="2" max="67" man="1"/>
+    <brk id="11" max="67" man="1"/>
   </colBreaks>
 </worksheet>
 </file>
--- a/Assets/00.Data/Excel/MapTable.xlsx
+++ b/Assets/00.Data/Excel/MapTable.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssy12\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292EECEC-EBC7-4A1A-AD50-0297BAF05BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1866A9C-E4F5-46F6-B927-8FF283D056AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11145" yWindow="3120" windowWidth="13650" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Map_Table" sheetId="16" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Map_Table!$B$5:$L$75</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Map_Table!$A$1:$W$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Map_Table!$A$1:$W$37</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -483,7 +483,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -517,6 +517,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAEABAB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +614,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +683,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -900,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R970"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A26" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD65"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="T59" sqref="T59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2286,18 +2298,18 @@
     </row>
     <row r="36" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15"/>
-      <c r="B36" s="16">
-        <v>61</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="B36" s="10">
+        <v>31</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
       <c r="L36" s="5"/>
       <c r="M36" s="13"/>
       <c r="N36" s="5"/>
@@ -2308,18 +2320,18 @@
     </row>
     <row r="37" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15"/>
-      <c r="B37" s="16">
-        <v>62</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="B37" s="10">
+        <v>32</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
       <c r="L37" s="5"/>
       <c r="M37" s="13"/>
       <c r="N37" s="5"/>
@@ -2330,18 +2342,18 @@
     </row>
     <row r="38" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15"/>
-      <c r="B38" s="16">
-        <v>63</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="B38" s="10">
+        <v>33</v>
+      </c>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
       <c r="L38" s="5"/>
       <c r="M38" s="13"/>
       <c r="N38" s="5"/>
@@ -2352,18 +2364,18 @@
     </row>
     <row r="39" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="15"/>
-      <c r="B39" s="16">
-        <v>64</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="B39" s="10">
+        <v>34</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
       <c r="L39" s="5"/>
       <c r="M39" s="13"/>
       <c r="N39" s="5"/>
@@ -2374,18 +2386,18 @@
     </row>
     <row r="40" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15"/>
-      <c r="B40" s="16">
-        <v>65</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="B40" s="10">
+        <v>35</v>
+      </c>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
       <c r="L40" s="5"/>
       <c r="M40" s="13"/>
       <c r="N40" s="5"/>
@@ -2396,18 +2408,18 @@
     </row>
     <row r="41" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15"/>
-      <c r="B41" s="16">
-        <v>66</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="B41" s="10">
+        <v>36</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
       <c r="L41" s="5"/>
       <c r="M41" s="13"/>
       <c r="N41" s="5"/>
@@ -2418,18 +2430,18 @@
     </row>
     <row r="42" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15"/>
-      <c r="B42" s="16">
-        <v>67</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="B42" s="10">
+        <v>37</v>
+      </c>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
       <c r="L42" s="5"/>
       <c r="M42" s="13"/>
       <c r="N42" s="5"/>
@@ -2440,18 +2452,18 @@
     </row>
     <row r="43" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15"/>
-      <c r="B43" s="16">
-        <v>68</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="B43" s="10">
+        <v>38</v>
+      </c>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
       <c r="L43" s="5"/>
       <c r="M43" s="13"/>
       <c r="N43" s="5"/>
@@ -2462,18 +2474,18 @@
     </row>
     <row r="44" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15"/>
-      <c r="B44" s="16">
-        <v>69</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="B44" s="10">
+        <v>39</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
       <c r="L44" s="5"/>
       <c r="M44" s="13"/>
       <c r="N44" s="5"/>
@@ -2484,18 +2496,18 @@
     </row>
     <row r="45" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="15"/>
-      <c r="B45" s="16">
-        <v>70</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="B45" s="10">
+        <v>40</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
       <c r="L45" s="5"/>
       <c r="M45" s="13"/>
       <c r="N45" s="5"/>
@@ -2506,18 +2518,18 @@
     </row>
     <row r="46" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
-      <c r="B46" s="16">
-        <v>71</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="B46" s="10">
+        <v>41</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
       <c r="L46" s="5"/>
       <c r="M46" s="13"/>
       <c r="N46" s="5"/>
@@ -2528,18 +2540,18 @@
     </row>
     <row r="47" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
-      <c r="B47" s="16">
-        <v>72</v>
-      </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="B47" s="10">
+        <v>42</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
       <c r="L47" s="5"/>
       <c r="M47" s="13"/>
       <c r="N47" s="5"/>
@@ -2550,18 +2562,18 @@
     </row>
     <row r="48" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15"/>
-      <c r="B48" s="16">
-        <v>73</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="B48" s="10">
+        <v>43</v>
+      </c>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
       <c r="L48" s="5"/>
       <c r="M48" s="13"/>
       <c r="N48" s="5"/>
@@ -2572,18 +2584,18 @@
     </row>
     <row r="49" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15"/>
-      <c r="B49" s="16">
-        <v>74</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="B49" s="10">
+        <v>44</v>
+      </c>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
       <c r="L49" s="5"/>
       <c r="M49" s="13"/>
       <c r="N49" s="5"/>
@@ -2594,18 +2606,18 @@
     </row>
     <row r="50" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="15"/>
-      <c r="B50" s="16">
-        <v>75</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+      <c r="B50" s="10">
+        <v>45</v>
+      </c>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
       <c r="L50" s="14"/>
       <c r="M50" s="13"/>
       <c r="N50" s="5"/>
@@ -2616,18 +2628,18 @@
     </row>
     <row r="51" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="15"/>
-      <c r="B51" s="16">
-        <v>76</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+      <c r="B51" s="10">
+        <v>46</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
       <c r="L51" s="5"/>
       <c r="M51" s="13"/>
       <c r="N51" s="5"/>
@@ -2638,18 +2650,18 @@
     </row>
     <row r="52" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="15"/>
-      <c r="B52" s="16">
-        <v>77</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
+      <c r="B52" s="10">
+        <v>47</v>
+      </c>
+      <c r="C52" s="23"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
       <c r="L52" s="5"/>
       <c r="M52" s="13"/>
       <c r="N52" s="5"/>
@@ -2660,18 +2672,18 @@
     </row>
     <row r="53" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="15"/>
-      <c r="B53" s="16">
-        <v>78</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+      <c r="B53" s="10">
+        <v>48</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
       <c r="L53" s="5"/>
       <c r="M53" s="13"/>
       <c r="N53" s="5"/>
@@ -2682,18 +2694,18 @@
     </row>
     <row r="54" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15"/>
-      <c r="B54" s="16">
-        <v>79</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
+      <c r="B54" s="10">
+        <v>49</v>
+      </c>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
       <c r="L54" s="5"/>
       <c r="M54" s="13"/>
       <c r="N54" s="5"/>
@@ -2704,18 +2716,18 @@
     </row>
     <row r="55" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="15"/>
-      <c r="B55" s="16">
-        <v>80</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
+      <c r="B55" s="10">
+        <v>50</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
       <c r="L55" s="5"/>
       <c r="M55" s="13"/>
       <c r="N55" s="5"/>
@@ -2726,18 +2738,18 @@
     </row>
     <row r="56" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="15"/>
-      <c r="B56" s="16">
-        <v>81</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
+      <c r="B56" s="10">
+        <v>51</v>
+      </c>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
       <c r="L56" s="5"/>
       <c r="M56" s="13"/>
       <c r="N56" s="5"/>
@@ -2748,18 +2760,18 @@
     </row>
     <row r="57" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="15"/>
-      <c r="B57" s="16">
-        <v>82</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
+      <c r="B57" s="10">
+        <v>52</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
       <c r="L57" s="5"/>
       <c r="M57" s="13"/>
       <c r="N57" s="5"/>
@@ -2770,18 +2782,18 @@
     </row>
     <row r="58" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="15"/>
-      <c r="B58" s="16">
-        <v>83</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
+      <c r="B58" s="10">
+        <v>53</v>
+      </c>
+      <c r="C58" s="23"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
       <c r="L58" s="5"/>
       <c r="M58" s="13"/>
       <c r="N58" s="5"/>
@@ -2792,18 +2804,18 @@
     </row>
     <row r="59" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="15"/>
-      <c r="B59" s="16">
-        <v>84</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
+      <c r="B59" s="10">
+        <v>54</v>
+      </c>
+      <c r="C59" s="23"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
       <c r="L59" s="5"/>
       <c r="M59" s="13"/>
       <c r="N59" s="5"/>
@@ -2814,18 +2826,18 @@
     </row>
     <row r="60" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="15"/>
-      <c r="B60" s="16">
-        <v>85</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
+      <c r="B60" s="10">
+        <v>55</v>
+      </c>
+      <c r="C60" s="23"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
       <c r="L60" s="5"/>
       <c r="M60" s="13"/>
       <c r="N60" s="5"/>
@@ -2836,18 +2848,18 @@
     </row>
     <row r="61" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="15"/>
-      <c r="B61" s="16">
-        <v>86</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
+      <c r="B61" s="10">
+        <v>56</v>
+      </c>
+      <c r="C61" s="23"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
       <c r="L61" s="5"/>
       <c r="M61" s="13"/>
       <c r="N61" s="5"/>
@@ -2858,18 +2870,18 @@
     </row>
     <row r="62" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15"/>
-      <c r="B62" s="16">
-        <v>87</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
+      <c r="B62" s="10">
+        <v>57</v>
+      </c>
+      <c r="C62" s="23"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
       <c r="L62" s="5"/>
       <c r="M62" s="13"/>
       <c r="N62" s="5"/>
@@ -2880,18 +2892,18 @@
     </row>
     <row r="63" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="15"/>
-      <c r="B63" s="16">
-        <v>88</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
+      <c r="B63" s="10">
+        <v>58</v>
+      </c>
+      <c r="C63" s="23"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
       <c r="L63" s="5"/>
       <c r="M63" s="13"/>
       <c r="N63" s="5"/>
@@ -2902,18 +2914,18 @@
     </row>
     <row r="64" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="15"/>
-      <c r="B64" s="16">
-        <v>89</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
+      <c r="B64" s="10">
+        <v>59</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
       <c r="L64" s="5"/>
       <c r="M64" s="13"/>
       <c r="N64" s="5"/>
@@ -2924,18 +2936,18 @@
     </row>
     <row r="65" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="15"/>
-      <c r="B65" s="16">
-        <v>90</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="B65" s="10">
+        <v>60</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
       <c r="L65" s="5"/>
       <c r="M65" s="13"/>
       <c r="N65" s="5"/>
@@ -2946,8 +2958,8 @@
     </row>
     <row r="66" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="15"/>
-      <c r="B66" s="16">
-        <v>91</v>
+      <c r="B66" s="10">
+        <v>61</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
@@ -2968,8 +2980,8 @@
     </row>
     <row r="67" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15"/>
-      <c r="B67" s="16">
-        <v>92</v>
+      <c r="B67" s="10">
+        <v>62</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -2990,8 +3002,8 @@
     </row>
     <row r="68" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="15"/>
-      <c r="B68" s="16">
-        <v>93</v>
+      <c r="B68" s="10">
+        <v>63</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -21083,8 +21095,8 @@
     <brk id="35" max="22" man="1"/>
   </rowBreaks>
   <colBreaks count="2" manualBreakCount="2">
-    <brk id="2" max="67" man="1"/>
-    <brk id="11" max="67" man="1"/>
+    <brk id="2" max="36" man="1"/>
+    <brk id="11" max="36" man="1"/>
   </colBreaks>
 </worksheet>
 </file>